--- a/BackTest/2019-10-14 BackTest XRP.xlsx
+++ b/BackTest/2019-10-14 BackTest XRP.xlsx
@@ -4476,20 +4476,14 @@
         <v>330.4333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>327</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4517,20 +4511,14 @@
         <v>330.3666666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>327</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4558,20 +4546,14 @@
         <v>330.3166666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>328</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4605,14 +4587,12 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>327</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="K120" t="n">
+        <v>328</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4646,12 +4626,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>326</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+        <v>327</v>
+      </c>
+      <c r="K121" t="n">
+        <v>328</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -4687,12 +4669,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>328</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+        <v>326</v>
+      </c>
+      <c r="K122" t="n">
+        <v>328</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -4730,12 +4714,10 @@
       <c r="J123" t="n">
         <v>328</v>
       </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="n">
+        <v>328</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4763,18 +4745,18 @@
         <v>330.0333333333334</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>328</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>328</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -4812,10 +4794,12 @@
       <c r="J125" t="n">
         <v>328</v>
       </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>328</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -4851,12 +4835,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>329</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+        <v>328</v>
+      </c>
+      <c r="K126" t="n">
+        <v>328</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -4892,9 +4878,11 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>328</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+        <v>327</v>
+      </c>
+      <c r="K127" t="n">
+        <v>328</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4933,9 +4921,11 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>328</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+        <v>329</v>
+      </c>
+      <c r="K128" t="n">
+        <v>328</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4968,15 +4958,15 @@
         <v>329.85</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>328</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>328</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5009,15 +4999,15 @@
         <v>329.8</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>328</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>328</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5050,15 +5040,15 @@
         <v>329.75</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>328</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>328</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5091,15 +5081,15 @@
         <v>329.7166666666666</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>328</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>328</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5132,15 +5122,15 @@
         <v>329.6666666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>328</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>328</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5173,15 +5163,15 @@
         <v>329.6166666666667</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>327</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>328</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5214,15 +5204,15 @@
         <v>329.5666666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>328</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>328</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5255,15 +5245,15 @@
         <v>329.5</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>327</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>328</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5296,15 +5286,15 @@
         <v>329.4333333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>327</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>328</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5337,15 +5327,15 @@
         <v>329.3666666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>327</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>328</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5378,15 +5368,15 @@
         <v>329.3166666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>328</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>328</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5419,15 +5409,15 @@
         <v>329.2666666666667</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>328</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>328</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5460,15 +5450,15 @@
         <v>329.2</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>327</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>328</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5501,15 +5491,15 @@
         <v>329.1333333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>327</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>328</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,15 +5532,15 @@
         <v>329.0833333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>328</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>328</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5583,15 +5573,15 @@
         <v>329.0333333333334</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>328</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>328</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5624,15 +5614,15 @@
         <v>329</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>329</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>328</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5665,15 +5655,15 @@
         <v>328.95</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>329</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>328</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5706,15 +5696,15 @@
         <v>328.9</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>329</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>328</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5747,15 +5737,15 @@
         <v>328.85</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>328</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>328</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5788,15 +5778,15 @@
         <v>328.8</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>328</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>328</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5829,15 +5819,15 @@
         <v>328.75</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>328</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>328</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5870,15 +5860,15 @@
         <v>328.7</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>328</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>328</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5911,15 +5901,15 @@
         <v>328.6666666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>328</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>328</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5952,15 +5942,15 @@
         <v>328.6166666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>329</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>328</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5993,15 +5983,15 @@
         <v>328.5666666666667</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>328</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>328</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,15 +6024,15 @@
         <v>328.5</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>328</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>328</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6075,15 +6065,15 @@
         <v>328.4333333333333</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>328</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>328</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6116,15 +6106,15 @@
         <v>328.3666666666667</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>328</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>328</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6157,15 +6147,15 @@
         <v>328.3</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>328</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>328</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6198,15 +6188,15 @@
         <v>328.2333333333333</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>328</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>328</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6239,15 +6229,15 @@
         <v>328.1666666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>328</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>328</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,15 +6270,15 @@
         <v>328.1166666666667</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>328</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>328</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6321,15 +6311,15 @@
         <v>328.0833333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>329</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>328</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6362,15 +6352,15 @@
         <v>328.0333333333334</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>328</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>328</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6403,15 +6393,15 @@
         <v>328</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>328</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>328</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6444,15 +6434,15 @@
         <v>327.9666666666666</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>328</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>328</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6485,15 +6475,15 @@
         <v>327.9333333333333</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>328</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>328</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6526,15 +6516,15 @@
         <v>327.9</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>328</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>328</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6567,15 +6557,15 @@
         <v>327.8666666666667</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>328</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>328</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6608,15 +6598,15 @@
         <v>327.85</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>328</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>328</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6649,15 +6639,15 @@
         <v>327.8333333333333</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>328</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>328</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6690,15 +6680,15 @@
         <v>327.8666666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>328</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>328</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6731,15 +6721,15 @@
         <v>327.9</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>329</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>328</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6772,15 +6762,15 @@
         <v>327.9</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>328</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>328</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6813,15 +6803,15 @@
         <v>327.9</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>329</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>328</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6854,15 +6844,15 @@
         <v>327.9333333333333</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>328</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>328</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6895,15 +6885,15 @@
         <v>327.95</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>329</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>328</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6936,15 +6926,15 @@
         <v>327.9666666666666</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>328</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>328</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6977,15 +6967,15 @@
         <v>327.9833333333333</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>328</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>328</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7018,15 +7008,15 @@
         <v>327.9833333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>328</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>328</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7059,15 +7049,15 @@
         <v>328</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>328</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>328</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7100,15 +7090,15 @@
         <v>328.0333333333334</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>328</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>328</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7141,15 +7131,15 @@
         <v>328.0333333333334</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>328</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>328</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7182,15 +7172,15 @@
         <v>328.0333333333334</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>328</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>328</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7223,15 +7213,15 @@
         <v>328.0333333333334</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>328</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>328</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7264,15 +7254,15 @@
         <v>328.0333333333334</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>328</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>328</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7305,15 +7295,15 @@
         <v>328.05</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>328</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>328</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7346,15 +7336,15 @@
         <v>328.0333333333334</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>328</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>328</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7387,15 +7377,15 @@
         <v>328.0166666666667</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>328</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>328</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7428,15 +7418,15 @@
         <v>328.0166666666667</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>328</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>328</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7469,15 +7459,15 @@
         <v>328.0166666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>328</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>328</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7510,15 +7500,15 @@
         <v>328.0166666666667</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>328</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>328</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7551,15 +7541,15 @@
         <v>328.0166666666667</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>328</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>328</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7592,15 +7582,15 @@
         <v>328.0166666666667</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>328</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>328</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7633,15 +7623,15 @@
         <v>328.0333333333334</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>329</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>328</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7674,15 +7664,15 @@
         <v>328.0333333333334</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>328</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>328</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7715,15 +7705,15 @@
         <v>328.05</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>328</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>328</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7756,15 +7746,15 @@
         <v>328.0833333333333</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>329</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>328</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7797,15 +7787,15 @@
         <v>328.1166666666667</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>329</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>328</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7838,15 +7828,15 @@
         <v>328.1333333333333</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>329</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>328</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7879,15 +7869,15 @@
         <v>328.15</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>329</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>328</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7920,15 +7910,15 @@
         <v>328.1833333333333</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>328</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>328</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7961,15 +7951,15 @@
         <v>328.2166666666666</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>329</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>328</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8002,15 +7992,15 @@
         <v>328.2333333333333</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>329</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>328</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8043,15 +8033,15 @@
         <v>328.25</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>329</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>328</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8084,15 +8074,15 @@
         <v>328.25</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>329</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>328</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8125,15 +8115,15 @@
         <v>328.2666666666667</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>329</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>328</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8166,15 +8156,15 @@
         <v>328.2833333333334</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>329</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>328</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8207,15 +8197,15 @@
         <v>328.3</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>329</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>328</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8248,15 +8238,15 @@
         <v>328.3166666666667</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>329</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>328</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,15 +8279,15 @@
         <v>328.3333333333333</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>329</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>328</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8330,15 +8320,15 @@
         <v>328.3666666666667</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>330</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>328</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8371,15 +8361,15 @@
         <v>328.3833333333333</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>330</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>328</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8412,15 +8402,15 @@
         <v>328.4</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>329</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>328</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8453,15 +8443,15 @@
         <v>328.4333333333333</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>330</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>328</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8494,15 +8484,15 @@
         <v>328.45</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>330</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>328</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8541,7 +8531,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>328</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8574,15 +8566,15 @@
         <v>328.5</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>330</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>328</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8615,15 +8607,15 @@
         <v>328.5166666666667</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>329</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>328</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8662,7 +8654,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>328</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8695,15 +8689,15 @@
         <v>328.55</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>329</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>328</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8736,15 +8730,15 @@
         <v>328.5666666666667</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>329</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>328</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8777,15 +8771,15 @@
         <v>328.5666666666667</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>329</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>328</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8818,15 +8812,15 @@
         <v>328.5833333333333</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>329</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>328</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8859,15 +8853,15 @@
         <v>328.6</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>329</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>328</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8900,15 +8894,15 @@
         <v>328.6333333333333</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>330</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>328</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8941,15 +8935,15 @@
         <v>328.6666666666667</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>330</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>328</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8982,15 +8976,15 @@
         <v>328.7</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>330</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>328</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9029,7 +9023,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>328</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9068,7 +9064,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>328</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9107,7 +9105,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>328</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9146,7 +9146,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>328</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9185,7 +9187,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>328</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9224,7 +9228,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>328</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9263,7 +9269,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>328</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9302,7 +9310,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>328</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9341,7 +9351,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>328</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9380,7 +9392,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>328</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9419,7 +9433,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>328</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9458,7 +9474,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>328</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9497,7 +9515,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>328</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9536,7 +9556,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>328</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9575,7 +9597,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>328</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9614,7 +9638,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>328</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9653,7 +9679,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>328</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9692,7 +9720,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>328</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9731,7 +9761,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>328</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9770,7 +9802,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>328</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9809,7 +9843,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>328</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9848,7 +9884,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>328</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9887,7 +9925,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>328</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9926,7 +9966,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>328</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9965,7 +10007,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>328</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10004,7 +10048,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>328</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10043,7 +10089,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>328</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10082,7 +10130,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>328</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10121,7 +10171,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>328</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10160,7 +10212,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>328</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10199,7 +10253,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>328</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10238,7 +10294,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>328</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10277,7 +10335,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>328</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10316,7 +10376,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>328</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10355,7 +10417,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>328</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10394,7 +10458,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>328</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10433,7 +10499,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>328</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10472,7 +10540,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>328</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10505,15 +10575,15 @@
         <v>329.4666666666666</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>328</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>328</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10546,15 +10616,15 @@
         <v>329.4666666666666</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>329</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>328</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10587,15 +10657,15 @@
         <v>329.4666666666666</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>329</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>328</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10628,15 +10698,15 @@
         <v>329.4666666666666</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>328</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>328</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10669,15 +10739,15 @@
         <v>329.45</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>329</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>328</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10710,15 +10780,15 @@
         <v>329.4333333333333</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>328</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>328</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10751,15 +10821,15 @@
         <v>329.4166666666667</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>329</v>
-      </c>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>328</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10792,15 +10862,15 @@
         <v>329.4166666666667</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>329</v>
-      </c>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>328</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10833,15 +10903,15 @@
         <v>329.4</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>329</v>
-      </c>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>328</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10874,15 +10944,15 @@
         <v>329.3833333333333</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>329</v>
-      </c>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>328</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10915,15 +10985,15 @@
         <v>329.3666666666667</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>328</v>
-      </c>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>328</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10956,15 +11026,15 @@
         <v>329.35</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>329</v>
-      </c>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>328</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10997,15 +11067,15 @@
         <v>329.35</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>329</v>
-      </c>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>328</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11038,15 +11108,15 @@
         <v>329.35</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>329</v>
-      </c>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>328</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11079,15 +11149,15 @@
         <v>329.35</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>329</v>
-      </c>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>328</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11120,15 +11190,15 @@
         <v>329.35</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>329</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>328</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11161,15 +11231,15 @@
         <v>329.35</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>329</v>
-      </c>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>328</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11202,15 +11272,15 @@
         <v>329.35</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>329</v>
-      </c>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>328</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11243,15 +11313,15 @@
         <v>329.35</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>329</v>
-      </c>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>328</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11284,15 +11354,15 @@
         <v>329.3333333333333</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>329</v>
-      </c>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>328</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11325,15 +11395,15 @@
         <v>329.3166666666667</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>329</v>
-      </c>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>328</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11366,15 +11436,15 @@
         <v>329.3</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>329</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>328</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11407,15 +11477,15 @@
         <v>329.2666666666667</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>329</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>328</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11448,15 +11518,15 @@
         <v>329.25</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>329</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>328</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11489,15 +11559,15 @@
         <v>329.2333333333333</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>328</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>328</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11530,15 +11600,15 @@
         <v>329.2</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>329</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>328</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11571,15 +11641,15 @@
         <v>329.1833333333333</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>328</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>328</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11612,15 +11682,15 @@
         <v>329.15</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>328</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>328</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11653,15 +11723,15 @@
         <v>329.1333333333333</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>328</v>
-      </c>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>328</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11694,15 +11764,15 @@
         <v>329.1</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>328</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>328</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11735,15 +11805,15 @@
         <v>329.0666666666667</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>327</v>
-      </c>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>328</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11776,15 +11846,15 @@
         <v>329.0166666666667</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>327</v>
-      </c>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>328</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11817,15 +11887,15 @@
         <v>328.9666666666666</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>328</v>
-      </c>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>328</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11858,15 +11928,15 @@
         <v>328.95</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>327</v>
-      </c>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>328</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11899,15 +11969,15 @@
         <v>328.9</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>328</v>
-      </c>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>328</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11940,15 +12010,15 @@
         <v>328.8666666666667</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>327</v>
-      </c>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>328</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11981,15 +12051,15 @@
         <v>328.8333333333333</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>328</v>
-      </c>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>328</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12022,15 +12092,15 @@
         <v>328.8</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>328</v>
-      </c>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>328</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12063,15 +12133,15 @@
         <v>328.7833333333334</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>328</v>
-      </c>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>328</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12104,15 +12174,15 @@
         <v>328.7666666666667</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>328</v>
-      </c>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>328</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12145,15 +12215,15 @@
         <v>328.75</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>328</v>
-      </c>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>328</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12186,15 +12256,15 @@
         <v>328.7333333333333</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>328</v>
-      </c>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>328</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12227,15 +12297,15 @@
         <v>328.7</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>328</v>
-      </c>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>328</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12268,15 +12338,15 @@
         <v>328.6833333333333</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>329</v>
-      </c>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>328</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12309,15 +12379,15 @@
         <v>328.65</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>329</v>
-      </c>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>328</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12350,15 +12420,15 @@
         <v>328.6166666666667</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>328</v>
-      </c>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>328</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12391,15 +12461,15 @@
         <v>328.5833333333333</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>329</v>
-      </c>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>328</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12432,15 +12502,15 @@
         <v>328.5833333333333</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>328</v>
-      </c>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>328</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12473,15 +12543,15 @@
         <v>328.5833333333333</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>328</v>
-      </c>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>328</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12514,15 +12584,15 @@
         <v>328.55</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>329</v>
-      </c>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>328</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12555,15 +12625,15 @@
         <v>328.5333333333334</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>329</v>
-      </c>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>328</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12596,15 +12666,15 @@
         <v>328.5333333333334</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>329</v>
-      </c>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>328</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12637,15 +12707,15 @@
         <v>328.5166666666667</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>329</v>
-      </c>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>328</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12678,15 +12748,15 @@
         <v>328.5</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>329</v>
-      </c>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>328</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12719,15 +12789,15 @@
         <v>328.5</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>329</v>
-      </c>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>328</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12760,15 +12830,15 @@
         <v>328.5</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>329</v>
-      </c>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>328</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12801,15 +12871,15 @@
         <v>328.5</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>329</v>
-      </c>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>328</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12842,15 +12912,15 @@
         <v>328.5166666666667</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>329</v>
-      </c>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>328</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12883,15 +12953,15 @@
         <v>328.5333333333334</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>329</v>
-      </c>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>328</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12924,15 +12994,15 @@
         <v>328.55</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>330</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>328</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12965,15 +13035,15 @@
         <v>328.5666666666667</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>329</v>
-      </c>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>328</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13006,15 +13076,15 @@
         <v>328.5666666666667</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>329</v>
-      </c>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>328</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13047,15 +13117,15 @@
         <v>328.5666666666667</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>329</v>
-      </c>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>328</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13088,15 +13158,15 @@
         <v>328.5666666666667</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>328</v>
-      </c>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>328</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13129,15 +13199,15 @@
         <v>328.5833333333333</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>329</v>
-      </c>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>328</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13170,15 +13240,15 @@
         <v>328.5666666666667</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>329</v>
-      </c>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>328</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13211,15 +13281,15 @@
         <v>328.55</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>329</v>
-      </c>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>328</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13252,15 +13322,15 @@
         <v>328.5666666666667</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>330</v>
-      </c>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>328</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13293,15 +13363,15 @@
         <v>328.5666666666667</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>329</v>
-      </c>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>328</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13334,15 +13404,15 @@
         <v>328.5833333333333</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>329</v>
-      </c>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>328</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13375,15 +13445,15 @@
         <v>328.6</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>328</v>
-      </c>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>328</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13416,15 +13486,15 @@
         <v>328.6</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>329</v>
-      </c>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>328</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13457,15 +13527,15 @@
         <v>328.6</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>329</v>
-      </c>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>328</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13498,15 +13568,15 @@
         <v>328.6166666666667</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>329</v>
-      </c>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>328</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13539,15 +13609,15 @@
         <v>328.6333333333333</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>330</v>
-      </c>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>328</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13580,15 +13650,15 @@
         <v>328.6333333333333</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>329</v>
-      </c>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>328</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13621,15 +13691,15 @@
         <v>328.6333333333333</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>329</v>
-      </c>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>328</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13662,15 +13732,15 @@
         <v>328.65</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>329</v>
-      </c>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>328</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13703,15 +13773,15 @@
         <v>328.6666666666667</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>330</v>
-      </c>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>328</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13744,15 +13814,15 @@
         <v>328.6833333333333</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>330</v>
-      </c>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>328</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13785,15 +13855,15 @@
         <v>328.7166666666666</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>331</v>
-      </c>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>328</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13832,7 +13902,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>328</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13871,7 +13943,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>328</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13910,7 +13984,9 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>328</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13949,7 +14025,9 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>328</v>
+      </c>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13988,7 +14066,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>328</v>
+      </c>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14027,7 +14107,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>328</v>
+      </c>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14066,7 +14148,9 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>328</v>
+      </c>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14105,7 +14189,9 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>328</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14144,7 +14230,9 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>328</v>
+      </c>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14183,7 +14271,9 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>328</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14222,7 +14312,9 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>328</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14261,7 +14353,9 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>328</v>
+      </c>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14300,7 +14394,9 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>328</v>
+      </c>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14339,7 +14435,9 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>328</v>
+      </c>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14378,7 +14476,9 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>328</v>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14417,7 +14517,9 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>328</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14456,7 +14558,9 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>328</v>
+      </c>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14495,7 +14599,9 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>328</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14534,7 +14640,9 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>328</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14573,7 +14681,9 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>328</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14612,7 +14722,9 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>328</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14651,7 +14763,9 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>328</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14690,7 +14804,9 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>328</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14729,7 +14845,9 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>328</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14768,7 +14886,9 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>328</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14807,7 +14927,9 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>328</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14846,7 +14968,9 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>328</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14885,7 +15009,9 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>328</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14924,7 +15050,9 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>328</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14963,7 +15091,9 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>328</v>
+      </c>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15002,7 +15132,9 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>328</v>
+      </c>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15041,7 +15173,9 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>328</v>
+      </c>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15080,7 +15214,9 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>328</v>
+      </c>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15119,7 +15255,9 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>328</v>
+      </c>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15158,7 +15296,9 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>328</v>
+      </c>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15197,7 +15337,9 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>328</v>
+      </c>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15236,7 +15378,9 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>328</v>
+      </c>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15275,7 +15419,9 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>328</v>
+      </c>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15314,7 +15460,9 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>328</v>
+      </c>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15353,7 +15501,9 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>328</v>
+      </c>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15392,7 +15542,9 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>328</v>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15431,7 +15583,9 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>328</v>
+      </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15470,7 +15624,9 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>328</v>
+      </c>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15509,7 +15665,9 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>328</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15548,7 +15706,9 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>328</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15587,7 +15747,9 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>328</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15626,7 +15788,9 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>328</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15665,7 +15829,9 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>328</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15704,7 +15870,9 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>328</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15743,7 +15911,9 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>328</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15782,7 +15952,9 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>328</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15821,7 +15993,9 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>328</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15860,7 +16034,9 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>328</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15899,7 +16075,9 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>328</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15938,7 +16116,9 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>328</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15977,7 +16157,9 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>328</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16016,7 +16198,9 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>328</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16055,7 +16239,9 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>328</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16094,7 +16280,9 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>328</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16130,16 +16318,20 @@
         <v>0</v>
       </c>
       <c r="I406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>328</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M406" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M406" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -16167,11 +16359,17 @@
         <v>0</v>
       </c>
       <c r="I407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>328</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16202,11 +16400,17 @@
         <v>0</v>
       </c>
       <c r="I408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>328</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -16237,11 +16441,17 @@
         <v>0</v>
       </c>
       <c r="I409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>328</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -16272,11 +16482,17 @@
         <v>0</v>
       </c>
       <c r="I410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>328</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -16307,11 +16523,17 @@
         <v>0</v>
       </c>
       <c r="I411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>328</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -16342,11 +16564,17 @@
         <v>0</v>
       </c>
       <c r="I412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>328</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -16377,11 +16605,17 @@
         <v>0</v>
       </c>
       <c r="I413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>328</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16415,8 +16649,14 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>328</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16450,8 +16690,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>328</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16485,8 +16731,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>328</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16520,8 +16772,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>328</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16555,8 +16813,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>328</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16590,8 +16854,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>328</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16625,8 +16895,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>328</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16660,8 +16936,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>328</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16695,8 +16977,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>328</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16730,8 +17018,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>328</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16765,8 +17059,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>328</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16800,8 +17100,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>328</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16835,8 +17141,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>328</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16870,8 +17182,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>328</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16905,8 +17223,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>328</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16940,8 +17264,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>328</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16975,8 +17305,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>328</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -17010,8 +17346,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>328</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -17045,8 +17387,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>328</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -17080,8 +17428,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>328</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -17115,8 +17469,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>328</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -17150,8 +17510,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>328</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17185,8 +17551,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>328</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17220,8 +17592,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>328</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17255,8 +17633,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>328</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -17290,8 +17674,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>328</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -17325,8 +17715,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>328</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -17360,8 +17756,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>328</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17395,8 +17797,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>328</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17430,8 +17838,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>328</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17465,8 +17879,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>328</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17500,8 +17920,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>328</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17535,8 +17961,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>328</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17570,8 +18002,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>328</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17605,8 +18043,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>328</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17640,8 +18084,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>328</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17675,8 +18125,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>328</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17710,8 +18166,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>328</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17745,8 +18207,14 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>328</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17780,8 +18248,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>328</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17815,8 +18289,14 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>328</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17850,8 +18330,14 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>328</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17885,8 +18371,14 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>328</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17920,8 +18412,14 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>328</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17955,8 +18453,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>328</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17990,8 +18494,14 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>328</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -18025,8 +18535,14 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>328</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -18060,8 +18576,14 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>328</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -18095,8 +18617,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>328</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -18130,8 +18658,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>328</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -18165,8 +18699,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>328</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -18200,8 +18740,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>328</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -18235,8 +18781,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>328</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -18270,8 +18822,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>328</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -18305,8 +18863,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>328</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18340,8 +18904,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>328</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18375,8 +18945,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>328</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18410,8 +18986,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>328</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18445,8 +19027,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>328</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18480,8 +19068,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>328</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18515,8 +19109,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>328</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18550,8 +19150,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>328</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18585,8 +19191,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>328</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18620,8 +19232,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>328</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18655,8 +19273,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>328</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18690,8 +19314,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>328</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18725,8 +19355,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>328</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18760,8 +19396,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>328</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18795,8 +19437,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>328</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18830,8 +19478,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>328</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18865,8 +19519,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>328</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18900,8 +19560,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>328</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18935,8 +19601,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>328</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18970,8 +19642,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>328</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -19005,8 +19683,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>328</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -19040,8 +19724,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>328</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -19075,8 +19765,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>328</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -19110,8 +19806,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>328</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -19145,8 +19847,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>328</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -19180,8 +19888,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>328</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -19215,8 +19929,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>328</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -19250,8 +19970,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>328</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -19285,8 +20011,14 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>328</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19320,8 +20052,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>328</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19355,8 +20093,14 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>328</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19390,8 +20134,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>328</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19425,8 +20175,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>328</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19460,8 +20216,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>328</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19495,8 +20257,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>328</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19530,8 +20298,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>328</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19565,8 +20339,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>328</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19600,8 +20380,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>328</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19635,8 +20421,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>328</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19670,8 +20462,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>328</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19705,8 +20503,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>328</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19740,8 +20544,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>328</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19775,8 +20585,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>328</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19810,8 +20626,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>328</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19845,8 +20667,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>328</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19880,8 +20708,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>328</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19915,8 +20749,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>328</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19950,8 +20790,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>328</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19985,8 +20831,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>328</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -20020,8 +20872,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>328</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -20055,8 +20913,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>328</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -20090,8 +20954,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>328</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -20125,8 +20995,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>328</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -20160,8 +21036,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>328</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -20195,8 +21077,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>328</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -20230,8 +21118,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>328</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -20265,8 +21159,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>328</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -20300,8 +21200,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>328</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20335,8 +21241,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>328</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20370,8 +21282,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>328</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20405,8 +21323,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>328</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20440,8 +21364,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>328</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20475,8 +21405,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>328</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20510,8 +21446,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>328</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20545,8 +21487,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>328</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20580,8 +21528,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>328</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20615,8 +21569,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>328</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20650,8 +21610,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>328</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20685,8 +21651,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>328</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20720,8 +21692,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>328</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20755,8 +21733,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>328</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20790,8 +21774,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>328</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20825,8 +21815,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>328</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20860,8 +21856,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>328</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20895,8 +21897,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>328</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20930,8 +21938,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>328</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20965,8 +21979,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>328</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -21000,8 +22020,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>328</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -21035,8 +22061,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>328</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -21070,8 +22102,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>328</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -21105,8 +22143,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>328</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -21140,8 +22184,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>328</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -21175,8 +22225,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>328</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -21210,8 +22266,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>328</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -21245,8 +22307,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>328</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21280,8 +22348,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>328</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -21315,8 +22389,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>328</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21350,8 +22430,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>328</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21385,8 +22471,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>328</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21420,8 +22512,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>328</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21455,8 +22553,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>328</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21490,8 +22594,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>328</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21525,8 +22635,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>328</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21560,8 +22676,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>328</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21595,8 +22717,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>328</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21630,8 +22758,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>328</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21665,8 +22799,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>328</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21700,8 +22840,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>328</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21735,8 +22881,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>328</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21770,8 +22922,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>328</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21805,8 +22963,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>328</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21840,8 +23004,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>328</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21875,8 +23045,14 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>328</v>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21910,8 +23086,14 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>328</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21945,8 +23127,14 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>328</v>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21980,8 +23168,14 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>328</v>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -22015,8 +23209,14 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>328</v>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -22050,8 +23250,14 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>328</v>
+      </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -22085,8 +23291,14 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>328</v>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -22120,8 +23332,14 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>328</v>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -22155,8 +23373,14 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>328</v>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -22190,8 +23414,14 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>328</v>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -22225,8 +23455,14 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>328</v>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -22260,8 +23496,14 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>328</v>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -22295,8 +23537,14 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>328</v>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22330,8 +23578,14 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>328</v>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22365,8 +23619,14 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>328</v>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22400,8 +23660,14 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>328</v>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22435,8 +23701,14 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>328</v>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22470,8 +23742,14 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>328</v>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -22505,8 +23783,14 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="K588" t="n">
+        <v>328</v>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22540,8 +23824,14 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="K589" t="n">
+        <v>328</v>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22572,13 +23862,19 @@
         <v>0</v>
       </c>
       <c r="I590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="K590" t="n">
+        <v>328</v>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M590" t="n">
-        <v>1</v>
+        <v>1.034634146341463</v>
       </c>
     </row>
     <row r="591">
@@ -22607,7 +23903,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
@@ -22642,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
@@ -24497,7 +25793,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>

--- a/BackTest/2019-10-14 BackTest XRP.xlsx
+++ b/BackTest/2019-10-14 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6127,10 +6127,14 @@
         <v>154200.55941237</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>329</v>
+      </c>
+      <c r="J174" t="n">
+        <v>329</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6160,11 +6164,19 @@
         <v>154200.55941237</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>327</v>
+      </c>
+      <c r="J175" t="n">
+        <v>329</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6205,19 @@
         <v>154200.55941237</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>327</v>
+      </c>
+      <c r="J176" t="n">
+        <v>329</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6246,19 @@
         <v>154200.55941237</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>327</v>
+      </c>
+      <c r="J177" t="n">
+        <v>329</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6287,19 @@
         <v>155246.47091237</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>327</v>
+      </c>
+      <c r="J178" t="n">
+        <v>329</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6328,19 @@
         <v>2722.957612369966</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>328</v>
+      </c>
+      <c r="J179" t="n">
+        <v>329</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6369,19 @@
         <v>2499.957612369966</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>327</v>
+      </c>
+      <c r="J180" t="n">
+        <v>329</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,15 +6410,19 @@
         <v>146777.41941237</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>326</v>
       </c>
       <c r="J181" t="n">
-        <v>326</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+        <v>329</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,17 +6451,17 @@
         <v>146777.41941237</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>328</v>
       </c>
       <c r="J182" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -6436,17 +6492,17 @@
         <v>146777.41941237</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>328</v>
       </c>
       <c r="J183" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -6477,11 +6533,19 @@
         <v>146777.41941237</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>328</v>
+      </c>
+      <c r="J184" t="n">
+        <v>329</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6510,11 +6574,19 @@
         <v>120744.98701237</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>328</v>
+      </c>
+      <c r="J185" t="n">
+        <v>329</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6543,11 +6615,19 @@
         <v>137821.93951237</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>327</v>
+      </c>
+      <c r="J186" t="n">
+        <v>329</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6576,11 +6656,19 @@
         <v>137821.93951237</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>329</v>
+      </c>
+      <c r="J187" t="n">
+        <v>329</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6609,11 +6697,19 @@
         <v>103558.12781237</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>329</v>
+      </c>
+      <c r="J188" t="n">
+        <v>329</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6642,11 +6738,19 @@
         <v>103558.12781237</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>328</v>
+      </c>
+      <c r="J189" t="n">
+        <v>329</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6675,11 +6779,19 @@
         <v>103558.12781237</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>328</v>
+      </c>
+      <c r="J190" t="n">
+        <v>329</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6708,11 +6820,19 @@
         <v>103558.12781237</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>328</v>
+      </c>
+      <c r="J191" t="n">
+        <v>329</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6741,11 +6861,19 @@
         <v>103558.12781237</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>328</v>
+      </c>
+      <c r="J192" t="n">
+        <v>329</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6774,11 +6902,19 @@
         <v>103558.12781237</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>328</v>
+      </c>
+      <c r="J193" t="n">
+        <v>329</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6807,11 +6943,19 @@
         <v>103558.12781237</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>328</v>
+      </c>
+      <c r="J194" t="n">
+        <v>329</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6840,11 +6984,19 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>328</v>
+      </c>
+      <c r="J195" t="n">
+        <v>329</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6873,11 +7025,19 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>327</v>
+      </c>
+      <c r="J196" t="n">
+        <v>329</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6906,11 +7066,19 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>327</v>
+      </c>
+      <c r="J197" t="n">
+        <v>329</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6939,11 +7107,19 @@
         <v>96110.04021236996</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>327</v>
+      </c>
+      <c r="J198" t="n">
+        <v>329</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6972,15 +7148,19 @@
         <v>96110.04021236996</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>328</v>
       </c>
       <c r="J199" t="n">
-        <v>328</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+        <v>329</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7009,15 +7189,17 @@
         <v>96106.96151236996</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>328</v>
+      </c>
       <c r="J200" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L200" t="n">
@@ -7048,15 +7230,17 @@
         <v>96106.96151236996</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>327</v>
+      </c>
       <c r="J201" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L201" t="n">
@@ -7087,11 +7271,19 @@
         <v>113374.45811237</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>327</v>
+      </c>
+      <c r="J202" t="n">
+        <v>329</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7120,11 +7312,19 @@
         <v>113374.45811237</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>328</v>
+      </c>
+      <c r="J203" t="n">
+        <v>329</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7156,8 +7356,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>329</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7189,8 +7395,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>329</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7222,8 +7434,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>329</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7255,8 +7473,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>329</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7288,8 +7512,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>329</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7321,8 +7551,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>329</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7354,8 +7590,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>329</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7629,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>329</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7420,8 +7668,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>329</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7453,8 +7707,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>329</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7486,8 +7746,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>329</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7519,8 +7785,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>329</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7552,8 +7824,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>329</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7585,8 +7863,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>329</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7618,8 +7902,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>329</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7648,15 +7938,17 @@
         <v>403454.59501237</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>328</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+        <v>329</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7685,17 +7977,15 @@
         <v>403454.59501237</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L220" t="n">
@@ -7730,11 +8020,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L221" t="n">
@@ -7768,8 +8058,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>329</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7801,8 +8097,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>329</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7834,8 +8136,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>329</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7867,8 +8175,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>329</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7897,15 +8211,19 @@
         <v>396836.18161237</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>328</v>
       </c>
       <c r="J226" t="n">
-        <v>328</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+        <v>329</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7934,17 +8252,17 @@
         <v>396836.18161237</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>328</v>
       </c>
       <c r="J227" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -7975,17 +8293,17 @@
         <v>396836.18161237</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>328</v>
       </c>
       <c r="J228" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L228" t="n">
@@ -8016,15 +8334,19 @@
         <v>396836.18161237</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>328</v>
       </c>
       <c r="J229" t="n">
-        <v>328</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+        <v>329</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8053,17 +8375,17 @@
         <v>396836.18161237</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>328</v>
       </c>
       <c r="J230" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -8094,17 +8416,17 @@
         <v>401358.9779123699</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>328</v>
       </c>
       <c r="J231" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
@@ -8135,15 +8457,17 @@
         <v>329799.20251237</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
         <v>329</v>
       </c>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8172,7 +8496,7 @@
         <v>330065.12041237</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>328</v>
@@ -8182,7 +8506,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L233" t="n">
@@ -8213,7 +8537,7 @@
         <v>330065.12041237</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>329</v>
@@ -8223,7 +8547,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -8254,7 +8578,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>329</v>
@@ -8295,7 +8619,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>328</v>
@@ -8336,7 +8660,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>328</v>
@@ -8377,7 +8701,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>328</v>
@@ -8418,7 +8742,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>328</v>
@@ -8459,7 +8783,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>328</v>
@@ -8500,7 +8824,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>328</v>
@@ -8541,7 +8865,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>328</v>
@@ -8582,7 +8906,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>328</v>
@@ -8623,7 +8947,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>328</v>
@@ -8664,7 +8988,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>328</v>
@@ -8705,7 +9029,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>328</v>
@@ -8746,7 +9070,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>328</v>
@@ -8787,7 +9111,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>328</v>
@@ -8828,7 +9152,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>328</v>
@@ -8869,7 +9193,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>328</v>
@@ -8910,7 +9234,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>328</v>
@@ -8951,7 +9275,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>328</v>
@@ -8992,7 +9316,7 @@
         <v>487120.7130123699</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>328</v>
@@ -9033,7 +9357,7 @@
         <v>469180.4876123699</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>329</v>
@@ -9074,7 +9398,7 @@
         <v>469180.4876123699</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>328</v>
@@ -9115,7 +9439,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>328</v>
@@ -9156,7 +9480,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>329</v>
@@ -9197,7 +9521,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>329</v>
@@ -9238,9 +9562,11 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>329</v>
+      </c>
       <c r="J259" t="n">
         <v>329</v>
       </c>
@@ -9277,9 +9603,11 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>329</v>
+      </c>
       <c r="J260" t="n">
         <v>329</v>
       </c>
@@ -9316,7 +9644,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>329</v>
@@ -9357,7 +9685,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>329</v>
@@ -9398,7 +9726,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>329</v>
@@ -9439,7 +9767,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>329</v>
@@ -9480,7 +9808,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>329</v>
@@ -9521,7 +9849,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>329</v>
@@ -9562,7 +9890,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>329</v>
@@ -9603,9 +9931,11 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>329</v>
+      </c>
       <c r="J268" t="n">
         <v>329</v>
       </c>
@@ -9642,7 +9972,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>329</v>
@@ -9683,9 +10013,11 @@
         <v>831374.42081237</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>329</v>
+      </c>
       <c r="J270" t="n">
         <v>329</v>
       </c>
@@ -10073,9 +10405,11 @@
         <v>838888.9373123699</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>329</v>
+      </c>
       <c r="J280" t="n">
         <v>329</v>
       </c>
@@ -10112,9 +10446,11 @@
         <v>838888.9373123699</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>329</v>
+      </c>
       <c r="J281" t="n">
         <v>329</v>
       </c>
@@ -12101,9 +12437,11 @@
         <v>633306.7761093298</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>329</v>
+      </c>
       <c r="J332" t="n">
         <v>329</v>
       </c>
@@ -12257,9 +12595,11 @@
         <v>535355.9368093298</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>328</v>
+      </c>
       <c r="J336" t="n">
         <v>329</v>
       </c>
@@ -12881,9 +13221,11 @@
         <v>487350.4228093298</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>328</v>
+      </c>
       <c r="J352" t="n">
         <v>329</v>
       </c>
@@ -12920,9 +13262,11 @@
         <v>487350.4228093298</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>328</v>
+      </c>
       <c r="J353" t="n">
         <v>329</v>
       </c>
@@ -12959,9 +13303,11 @@
         <v>487350.4228093298</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>328</v>
+      </c>
       <c r="J354" t="n">
         <v>329</v>
       </c>
@@ -12998,9 +13344,11 @@
         <v>487350.4228093298</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>328</v>
+      </c>
       <c r="J355" t="n">
         <v>329</v>
       </c>
@@ -13037,9 +13385,11 @@
         <v>393019.8138093298</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>328</v>
+      </c>
       <c r="J356" t="n">
         <v>329</v>
       </c>
@@ -13076,7 +13426,7 @@
         <v>393019.8138093298</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>327</v>
@@ -13117,7 +13467,7 @@
         <v>449261.4558093298</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>327</v>
@@ -13158,7 +13508,7 @@
         <v>356463.0673093298</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>328</v>
@@ -13199,7 +13549,7 @@
         <v>376072.2354093298</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>327</v>
@@ -13240,7 +13590,7 @@
         <v>376072.2354093298</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>328</v>
@@ -13281,7 +13631,7 @@
         <v>376072.2354093298</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>328</v>
@@ -13322,9 +13672,11 @@
         <v>376072.2354093298</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>328</v>
+      </c>
       <c r="J363" t="n">
         <v>329</v>
       </c>
@@ -13361,7 +13713,7 @@
         <v>376072.2354093298</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>328</v>
@@ -13402,7 +13754,7 @@
         <v>398500.0749093298</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>328</v>
@@ -13443,7 +13795,7 @@
         <v>398500.0749093298</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>329</v>
@@ -13484,7 +13836,7 @@
         <v>316619.4284093297</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>329</v>
@@ -13525,11 +13877,9 @@
         <v>337896.0241093297</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
         <v>329</v>
       </c>
@@ -13566,11 +13916,9 @@
         <v>337896.0241093297</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
         <v>329</v>
       </c>
@@ -13646,9 +13994,11 @@
         <v>337889.7789093297</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>328</v>
+      </c>
       <c r="J371" t="n">
         <v>329</v>
       </c>
@@ -13685,9 +14035,11 @@
         <v>355210.7030828797</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>328</v>
+      </c>
       <c r="J372" t="n">
         <v>329</v>
       </c>
@@ -13724,9 +14076,11 @@
         <v>355210.7030828797</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>329</v>
+      </c>
       <c r="J373" t="n">
         <v>329</v>
       </c>
@@ -13763,9 +14117,11 @@
         <v>342455.9235828797</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>329</v>
+      </c>
       <c r="J374" t="n">
         <v>329</v>
       </c>
@@ -13802,9 +14158,11 @@
         <v>351421.3125828797</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>328</v>
+      </c>
       <c r="J375" t="n">
         <v>329</v>
       </c>
@@ -13841,9 +14199,11 @@
         <v>351421.3125828797</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>329</v>
+      </c>
       <c r="J376" t="n">
         <v>329</v>
       </c>
@@ -13880,9 +14240,11 @@
         <v>351421.3125828797</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>329</v>
+      </c>
       <c r="J377" t="n">
         <v>329</v>
       </c>
@@ -13919,9 +14281,11 @@
         <v>260974.3832828797</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>329</v>
+      </c>
       <c r="J378" t="n">
         <v>329</v>
       </c>
@@ -13958,9 +14322,11 @@
         <v>270717.4662828797</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>328</v>
+      </c>
       <c r="J379" t="n">
         <v>329</v>
       </c>
@@ -13997,9 +14363,11 @@
         <v>270717.4662828797</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>329</v>
+      </c>
       <c r="J380" t="n">
         <v>329</v>
       </c>
@@ -14075,9 +14443,11 @@
         <v>272839.3689040897</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>329</v>
+      </c>
       <c r="J382" t="n">
         <v>329</v>
       </c>
@@ -14465,9 +14835,11 @@
         <v>202004.1492525697</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>328</v>
+      </c>
       <c r="J392" t="n">
         <v>329</v>
       </c>
@@ -14543,9 +14915,11 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>329</v>
+      </c>
       <c r="J394" t="n">
         <v>329</v>
       </c>
@@ -14621,9 +14995,11 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>329</v>
+      </c>
       <c r="J396" t="n">
         <v>329</v>
       </c>
@@ -14660,9 +15036,11 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>329</v>
+      </c>
       <c r="J397" t="n">
         <v>329</v>
       </c>
@@ -14699,9 +15077,11 @@
         <v>221740.3909525697</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>329</v>
+      </c>
       <c r="J398" t="n">
         <v>329</v>
       </c>
@@ -14738,9 +15118,11 @@
         <v>221740.3909525697</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>330</v>
+      </c>
       <c r="J399" t="n">
         <v>329</v>
       </c>
@@ -14933,9 +15315,11 @@
         <v>218278.2906525697</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>330</v>
+      </c>
       <c r="J404" t="n">
         <v>329</v>
       </c>
@@ -14972,9 +15356,11 @@
         <v>218279.2906525697</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>330</v>
+      </c>
       <c r="J405" t="n">
         <v>329</v>
       </c>
@@ -17624,7 +18010,7 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
@@ -17663,7 +18049,7 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
@@ -17702,7 +18088,7 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
@@ -17780,7 +18166,7 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
@@ -17936,7 +18322,7 @@
         <v>3997242.442645069</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
@@ -18248,7 +18634,7 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
@@ -18287,7 +18673,7 @@
         <v>3748674.154239059</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
@@ -18326,7 +18712,7 @@
         <v>3858978.798857159</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
@@ -18404,7 +18790,7 @@
         <v>3807763.40865716</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
@@ -18443,7 +18829,7 @@
         <v>3808320.97385716</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
@@ -18482,7 +18868,7 @@
         <v>3808320.97385716</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
@@ -18521,7 +18907,7 @@
         <v>3808320.97385716</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
@@ -18560,7 +18946,7 @@
         <v>3808320.97385716</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
@@ -18599,7 +18985,7 @@
         <v>3799641.93575716</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
@@ -18638,7 +19024,7 @@
         <v>3799641.93575716</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
@@ -18677,7 +19063,7 @@
         <v>3799641.93575716</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
@@ -18716,7 +19102,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
@@ -18755,7 +19141,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
@@ -18794,7 +19180,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
@@ -18833,7 +19219,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
@@ -18872,7 +19258,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
@@ -18911,7 +19297,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
@@ -18950,7 +19336,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
@@ -18989,7 +19375,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
@@ -19028,7 +19414,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
@@ -19067,7 +19453,7 @@
         <v>4044884.02050956</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
@@ -19106,7 +19492,7 @@
         <v>4044884.02050956</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
@@ -19145,7 +19531,7 @@
         <v>4032862.00850956</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
@@ -19184,7 +19570,7 @@
         <v>4032862.00850956</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
@@ -19223,7 +19609,7 @@
         <v>4032862.00850956</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
@@ -19262,7 +19648,7 @@
         <v>4032862.00850956</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
@@ -19301,7 +19687,7 @@
         <v>4032862.00850956</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
@@ -19340,7 +19726,7 @@
         <v>4046868.06600956</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
@@ -19379,7 +19765,7 @@
         <v>4046868.06600956</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
@@ -19418,7 +19804,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
@@ -19457,7 +19843,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
@@ -19496,7 +19882,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
@@ -19535,7 +19921,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
@@ -19574,7 +19960,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
@@ -19613,7 +19999,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
@@ -19652,7 +20038,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
@@ -19691,7 +20077,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
@@ -19730,7 +20116,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
@@ -19808,7 +20194,7 @@
         <v>4047417.71240956</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
@@ -19847,7 +20233,7 @@
         <v>4038969.65562618</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
@@ -19886,7 +20272,7 @@
         <v>4038969.65562618</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
@@ -19925,7 +20311,7 @@
         <v>4038969.65562618</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
@@ -19964,7 +20350,7 @@
         <v>3955905.21094047</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
@@ -20003,7 +20389,7 @@
         <v>3955905.21094047</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
@@ -20042,7 +20428,7 @@
         <v>3966177.01564047</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
@@ -20081,7 +20467,7 @@
         <v>3966177.01564047</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
@@ -20120,7 +20506,7 @@
         <v>3966177.01564047</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
@@ -20159,7 +20545,7 @@
         <v>3966177.01564047</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
@@ -20198,7 +20584,7 @@
         <v>3966155.78724047</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
@@ -20237,7 +20623,7 @@
         <v>3999085.76400713</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
@@ -20276,7 +20662,7 @@
         <v>3999082.73210713</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
@@ -20315,7 +20701,7 @@
         <v>3999082.73210713</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
@@ -20354,7 +20740,7 @@
         <v>3999082.73210713</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
@@ -20393,7 +20779,7 @@
         <v>4006172.45910713</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
@@ -20432,7 +20818,7 @@
         <v>3975889.50550713</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
@@ -20471,7 +20857,7 @@
         <v>3975889.50550713</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
@@ -20510,7 +20896,7 @@
         <v>3975889.50550713</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
@@ -20549,7 +20935,7 @@
         <v>3975889.50550713</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
@@ -20588,7 +20974,7 @@
         <v>3884946.33470713</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
@@ -20627,7 +21013,7 @@
         <v>3895881.6076357</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
@@ -20666,7 +21052,7 @@
         <v>3895881.6076357</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
@@ -20705,7 +21091,7 @@
         <v>3895881.6076357</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
@@ -20744,7 +21130,7 @@
         <v>3932394.9409357</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
@@ -20783,7 +21169,7 @@
         <v>3544362.5065357</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
@@ -21017,7 +21403,7 @@
         <v>3544362.5065357</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
@@ -21056,7 +21442,7 @@
         <v>3544362.5065357</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
@@ -21095,7 +21481,7 @@
         <v>3544362.5065357</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
@@ -21368,7 +21754,7 @@
         <v>3655219.7387357</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
@@ -21407,7 +21793,7 @@
         <v>3655209.7426357</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
@@ -21524,7 +21910,7 @@
         <v>3658096.3455357</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
@@ -21563,7 +21949,7 @@
         <v>3662141.5676357</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
@@ -21680,7 +22066,7 @@
         <v>3652519.5049357</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
@@ -21719,7 +22105,7 @@
         <v>3652519.5049357</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
@@ -21758,7 +22144,7 @@
         <v>3652519.5049357</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
@@ -21797,7 +22183,7 @@
         <v>3652519.5049357</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
@@ -21836,7 +22222,7 @@
         <v>3639588.5503357</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
@@ -24449,7 +24835,7 @@
         <v>7016009.57587774</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
@@ -24457,11 +24843,11 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L648" t="n">
-        <v>1.028434650455927</v>
+        <v>1</v>
       </c>
       <c r="M648" t="inlineStr"/>
     </row>
@@ -24488,11 +24874,17 @@
         <v>7340342.80187774</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>329</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24521,11 +24913,17 @@
         <v>7340342.80187774</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>329</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24554,11 +24952,17 @@
         <v>7340342.80187774</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>329</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24587,11 +24991,17 @@
         <v>6852912.343277739</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>329</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24620,11 +25030,17 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>329</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24653,11 +25069,17 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>329</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24686,11 +25108,17 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>329</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24719,11 +25147,17 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>329</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24752,11 +25186,17 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>329</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24785,11 +25225,17 @@
         <v>6842935.461077739</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>329</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24821,8 +25267,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>329</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24854,8 +25306,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>329</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24887,8 +25345,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>329</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24920,8 +25384,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>329</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24953,8 +25423,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>329</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24986,8 +25462,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>329</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25019,8 +25501,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>329</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25052,8 +25540,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>329</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25085,8 +25579,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>329</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25115,11 +25615,17 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>329</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25151,8 +25657,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>329</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25181,11 +25693,17 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>329</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25214,11 +25732,17 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>329</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25250,8 +25774,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>329</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25280,11 +25810,17 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>329</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25316,8 +25852,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>329</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25349,8 +25891,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>329</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25382,8 +25930,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>329</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25415,8 +25969,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>329</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25448,8 +26008,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>329</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25481,8 +26047,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>329</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25514,8 +26086,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>329</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25547,8 +26125,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>329</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25580,8 +26164,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>329</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25613,8 +26203,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>329</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25646,8 +26242,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>329</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25679,8 +26281,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>329</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25712,8 +26320,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>329</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25745,8 +26359,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>329</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25778,8 +26398,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>329</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25811,8 +26437,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>329</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25844,8 +26476,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>329</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25877,8 +26515,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>329</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25910,8 +26554,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>329</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25943,8 +26593,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>329</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25976,8 +26632,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>329</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -26006,13 +26668,19 @@
         <v>7583547.525622188</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>329</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L695" t="n">
-        <v>1</v>
+        <v>1.03451367781155</v>
       </c>
       <c r="M695" t="inlineStr"/>
     </row>
@@ -26039,7 +26707,7 @@
         <v>7924707.452927439</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26072,7 +26740,7 @@
         <v>7924707.452927439</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26105,7 +26773,7 @@
         <v>7988965.512827438</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26138,7 +26806,7 @@
         <v>8496978.200285409</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26171,7 +26839,7 @@
         <v>8093879.213485409</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26204,7 +26872,7 @@
         <v>8170420.106327439</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26237,7 +26905,7 @@
         <v>8170420.106327439</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26270,7 +26938,7 @@
         <v>8170420.106327439</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26303,7 +26971,7 @@
         <v>8168739.310627439</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26336,7 +27004,7 @@
         <v>8485604.92105113</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26402,7 +27070,7 @@
         <v>8509959.521712421</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26435,7 +27103,7 @@
         <v>8621573.684455071</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26468,7 +27136,7 @@
         <v>8520444.29235507</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26501,7 +27169,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26534,7 +27202,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26567,7 +27235,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26600,7 +27268,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26633,7 +27301,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26666,7 +27334,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26699,7 +27367,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26732,7 +27400,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26765,7 +27433,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26798,7 +27466,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26831,7 +27499,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26864,7 +27532,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26897,7 +27565,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26930,7 +27598,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26963,7 +27631,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26996,7 +27664,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27029,7 +27697,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27062,7 +27730,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27095,7 +27763,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27128,7 +27796,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27161,7 +27829,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27359,7 +28027,7 @@
         <v>7805828.01433076</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27656,7 +28324,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27689,7 +28357,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27722,7 +28390,7 @@
         <v>7800023.60470179</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27755,7 +28423,7 @@
         <v>7800023.60470179</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27788,7 +28456,7 @@
         <v>7802638.06890179</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27821,7 +28489,7 @@
         <v>7657575.88150179</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27854,7 +28522,7 @@
         <v>7709480.51430179</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27887,7 +28555,7 @@
         <v>7498219.67830179</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27920,7 +28588,7 @@
         <v>7498219.67830179</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27953,7 +28621,7 @@
         <v>7498219.67830179</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27986,7 +28654,7 @@
         <v>7571269.99840179</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28019,7 +28687,7 @@
         <v>7396850.59270179</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28052,7 +28720,7 @@
         <v>7833632.10419454</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28085,7 +28753,7 @@
         <v>7824056.48689454</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28118,7 +28786,7 @@
         <v>7824056.48689454</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28151,7 +28819,7 @@
         <v>7824056.48689454</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28184,7 +28852,7 @@
         <v>7875895.202394539</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28217,7 +28885,7 @@
         <v>7782595.853194539</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28250,7 +28918,7 @@
         <v>7788454.89622062</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28283,7 +28951,7 @@
         <v>7775955.196920619</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28316,7 +28984,7 @@
         <v>8009516.840720619</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28481,7 +29149,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28745,7 +29413,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28778,7 +29446,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28811,7 +29479,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28844,7 +29512,7 @@
         <v>7867748.079220619</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28910,7 +29578,7 @@
         <v>7867748.079220619</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28943,7 +29611,7 @@
         <v>7867748.079220619</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28976,7 +29644,7 @@
         <v>7888521.954620619</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -29009,7 +29677,7 @@
         <v>7888521.954620619</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -29042,7 +29710,7 @@
         <v>7884082.23792062</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -29075,7 +29743,7 @@
         <v>7884082.23792062</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29108,7 +29776,7 @@
         <v>7917467.70602062</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29141,7 +29809,7 @@
         <v>7917467.70602062</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29174,7 +29842,7 @@
         <v>7638185.075120619</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29207,7 +29875,7 @@
         <v>7583813.01270167</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29240,7 +29908,7 @@
         <v>7583813.01270167</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29273,7 +29941,7 @@
         <v>7733699.2894521</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29306,7 +29974,7 @@
         <v>7723282.1728521</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29339,7 +30007,7 @@
         <v>7723282.1728521</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29372,7 +30040,7 @@
         <v>7723282.1728521</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29405,7 +30073,7 @@
         <v>7781415.3044521</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29438,7 +30106,7 @@
         <v>7781415.3044521</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29471,7 +30139,7 @@
         <v>7781415.3044521</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29504,7 +30172,7 @@
         <v>7781415.3044521</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29537,7 +30205,7 @@
         <v>7727870.058552099</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29570,7 +30238,7 @@
         <v>7751491.986452099</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29603,7 +30271,7 @@
         <v>7751491.986452099</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29636,7 +30304,7 @@
         <v>7623531.776752099</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29669,7 +30337,7 @@
         <v>7669845.801741309</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29702,7 +30370,7 @@
         <v>7266058.595241309</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29735,7 +30403,7 @@
         <v>7266058.595241309</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29768,7 +30436,7 @@
         <v>7266058.595241309</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29801,7 +30469,7 @@
         <v>7266058.595241309</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29834,7 +30502,7 @@
         <v>6778919.066141309</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29867,7 +30535,7 @@
         <v>6778919.066141309</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29900,7 +30568,7 @@
         <v>6778919.066141309</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29933,7 +30601,7 @@
         <v>6778919.066141309</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29966,7 +30634,7 @@
         <v>6778919.066141309</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29999,7 +30667,7 @@
         <v>6778919.066141309</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30032,7 +30700,7 @@
         <v>6815055.830541309</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -30065,7 +30733,7 @@
         <v>7136078.490641309</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -30098,7 +30766,7 @@
         <v>7136078.490641309</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30131,7 +30799,7 @@
         <v>6821825.667041309</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -30164,7 +30832,7 @@
         <v>6821825.667041309</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -30197,7 +30865,7 @@
         <v>6821825.667041309</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -30230,7 +30898,7 @@
         <v>7023288.092541309</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -30263,7 +30931,7 @@
         <v>7036511.798441309</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -30329,7 +30997,7 @@
         <v>6896898.559441309</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -30362,7 +31030,7 @@
         <v>6900333.705441309</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -30461,7 +31129,7 @@
         <v>6776805.583557589</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -30725,7 +31393,7 @@
         <v>6791857.99485759</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30758,7 +31426,7 @@
         <v>6770744.07095759</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30791,7 +31459,7 @@
         <v>6770744.07095759</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30824,7 +31492,7 @@
         <v>6771879.28651327</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30857,7 +31525,7 @@
         <v>6771879.28651327</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30890,7 +31558,7 @@
         <v>6771879.28651327</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30923,7 +31591,7 @@
         <v>6771879.28651327</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30956,7 +31624,7 @@
         <v>6771879.28651327</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30989,7 +31657,7 @@
         <v>6771879.28651327</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -31022,7 +31690,7 @@
         <v>6764546.82341327</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -31055,7 +31723,7 @@
         <v>6793547.91651327</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -31088,7 +31756,7 @@
         <v>6793547.91651327</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -31121,7 +31789,7 @@
         <v>6793547.91651327</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -31154,7 +31822,7 @@
         <v>6793547.91651327</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -31187,7 +31855,7 @@
         <v>6798470.70051327</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -31220,7 +31888,7 @@
         <v>6798470.70051327</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -31616,7 +32284,7 @@
         <v>6707498.410062119</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31649,7 +32317,7 @@
         <v>6707498.410062119</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31682,7 +32350,7 @@
         <v>6707498.410062119</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31715,7 +32383,7 @@
         <v>6707667.22676212</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31748,7 +32416,7 @@
         <v>6703984.99986212</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -31781,7 +32449,7 @@
         <v>6703984.99986212</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31814,7 +32482,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31847,7 +32515,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31880,7 +32548,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31913,7 +32581,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -31946,7 +32614,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31979,7 +32647,7 @@
         <v>6635636.309262119</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -32012,7 +32680,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -32045,7 +32713,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -32078,7 +32746,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -32111,7 +32779,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32144,7 +32812,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -32177,7 +32845,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -32210,7 +32878,7 @@
         <v>6767561.43463189</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -32243,7 +32911,7 @@
         <v>6819628.11223189</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -32474,7 +33142,7 @@
         <v>6793505.63803189</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -32507,7 +33175,7 @@
         <v>6793505.63803189</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -32540,7 +33208,7 @@
         <v>6793505.63803189</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32573,7 +33241,7 @@
         <v>6793505.63803189</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32639,7 +33307,7 @@
         <v>6793505.63803189</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -32672,7 +33340,7 @@
         <v>6793509.111831889</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -32705,7 +33373,7 @@
         <v>6793509.111831889</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32738,7 +33406,7 @@
         <v>6793391.30513189</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32771,7 +33439,7 @@
         <v>6837848.08283189</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32804,7 +33472,7 @@
         <v>6832510.661531891</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -32837,7 +33505,7 @@
         <v>6832510.661531891</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -32870,7 +33538,7 @@
         <v>6874893.725031891</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32903,7 +33571,7 @@
         <v>6874530.155231891</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32936,7 +33604,7 @@
         <v>6874530.155231891</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32969,7 +33637,7 @@
         <v>6874530.155231891</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -33002,7 +33670,7 @@
         <v>6898180.575131891</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -33035,7 +33703,7 @@
         <v>6882370.044231892</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -33068,7 +33736,7 @@
         <v>6882370.044231892</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -33101,7 +33769,7 @@
         <v>6902507.805348162</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -33233,7 +33901,7 @@
         <v>6927926.525522572</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -33266,7 +33934,7 @@
         <v>6927926.525522572</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -33299,7 +33967,7 @@
         <v>6928541.723171402</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -33431,7 +34099,7 @@
         <v>6927202.786771402</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -33464,7 +34132,7 @@
         <v>6927202.786771402</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -33530,7 +34198,7 @@
         <v>6582985.262871401</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33563,7 +34231,7 @@
         <v>6571565.371271402</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33596,7 +34264,7 @@
         <v>6571565.371271402</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33629,7 +34297,7 @@
         <v>6571565.371271402</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33662,7 +34330,7 @@
         <v>6572862.371271402</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33695,7 +34363,7 @@
         <v>6572862.371271402</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33728,7 +34396,7 @@
         <v>6572862.371271402</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33761,7 +34429,7 @@
         <v>6572862.371271402</v>
       </c>
       <c r="H930" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33794,7 +34462,7 @@
         <v>6572862.371271402</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33827,7 +34495,7 @@
         <v>6543852.971972572</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33860,7 +34528,7 @@
         <v>6543852.971972572</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33893,7 +34561,7 @@
         <v>6543797.145072572</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33926,7 +34594,7 @@
         <v>6675744.460372572</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33959,7 +34627,7 @@
         <v>6675744.460372572</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33992,7 +34660,7 @@
         <v>6716677.169225042</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34025,7 +34693,7 @@
         <v>6716677.169225042</v>
       </c>
       <c r="H938" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34058,7 +34726,7 @@
         <v>6716677.169225042</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34091,7 +34759,7 @@
         <v>6640038.551425042</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34124,7 +34792,7 @@
         <v>6640038.551425042</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34157,7 +34825,7 @@
         <v>7121404.066225042</v>
       </c>
       <c r="H942" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34190,7 +34858,7 @@
         <v>7063395.497025042</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34223,7 +34891,7 @@
         <v>7363406.655125041</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -34256,7 +34924,7 @@
         <v>7363406.655125041</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34289,7 +34957,7 @@
         <v>7363406.655125041</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -34784,7 +35452,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H961" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34817,7 +35485,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34850,7 +35518,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34883,7 +35551,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34916,7 +35584,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34949,7 +35617,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34982,7 +35650,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -35015,7 +35683,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -35048,7 +35716,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -35081,7 +35749,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H970" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -35114,7 +35782,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -35147,7 +35815,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -35279,7 +35947,7 @@
         <v>7937976.84772504</v>
       </c>
       <c r="H976" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -35543,7 +36211,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -35576,7 +36244,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -35609,7 +36277,7 @@
         <v>7917987.126464601</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -35642,7 +36310,7 @@
         <v>8038830.4534646</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -35675,7 +36343,7 @@
         <v>8038830.4534646</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -35708,7 +36376,7 @@
         <v>8035597.2858646</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -35741,7 +36409,7 @@
         <v>8035597.2858646</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35774,7 +36442,7 @@
         <v>8035157.6338646</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35807,7 +36475,7 @@
         <v>8069409.6046646</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35840,7 +36508,7 @@
         <v>8069409.6046646</v>
       </c>
       <c r="H993" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35906,7 +36574,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35939,7 +36607,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35972,7 +36640,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -36005,7 +36673,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -36038,7 +36706,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -36071,7 +36739,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -36104,7 +36772,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36137,7 +36805,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -36170,7 +36838,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36203,7 +36871,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -36236,7 +36904,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -36269,7 +36937,7 @@
         <v>7243729.135664601</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -36302,7 +36970,7 @@
         <v>7243729.135664601</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -36335,7 +37003,7 @@
         <v>7243729.135664601</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -36368,7 +37036,7 @@
         <v>7243729.135664601</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -36401,7 +37069,7 @@
         <v>7243729.135664601</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -36434,7 +37102,7 @@
         <v>7243729.135664601</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -36467,7 +37135,7 @@
         <v>7454858.081839811</v>
       </c>
       <c r="H1012" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -37094,7 +37762,7 @@
         <v>6699370.640804251</v>
       </c>
       <c r="H1031" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -37160,7 +37828,7 @@
         <v>6769689.043804251</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -37193,7 +37861,7 @@
         <v>6761056.278904251</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -37226,7 +37894,7 @@
         <v>6764286.608304251</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -37259,7 +37927,7 @@
         <v>6762722.253404251</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -37292,7 +37960,7 @@
         <v>6762722.253404251</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -37325,7 +37993,7 @@
         <v>6630227.617504251</v>
       </c>
       <c r="H1038" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -37358,7 +38026,7 @@
         <v>6630227.617504251</v>
       </c>
       <c r="H1039" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -37391,7 +38059,7 @@
         <v>6694665.922404251</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -37424,7 +38092,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -37457,7 +38125,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -37490,7 +38158,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -37523,7 +38191,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -37556,7 +38224,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -37589,7 +38257,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37622,7 +38290,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -37655,7 +38323,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1048" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37688,7 +38356,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -37721,7 +38389,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37754,7 +38422,7 @@
         <v>6610278.85370425</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -37787,7 +38455,7 @@
         <v>6833158.781104251</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -37820,7 +38488,7 @@
         <v>6784509.050104251</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -37853,7 +38521,7 @@
         <v>6784509.050104251</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37886,7 +38554,7 @@
         <v>6784509.050104251</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37919,7 +38587,7 @@
         <v>6702001.021304251</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37952,7 +38620,7 @@
         <v>7363771.569221901</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37985,7 +38653,7 @@
         <v>7281118.6654219</v>
       </c>
       <c r="H1058" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -38018,7 +38686,7 @@
         <v>7311437.370248291</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -38051,7 +38719,7 @@
         <v>7311437.370248291</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -38084,7 +38752,7 @@
         <v>7311437.370248291</v>
       </c>
       <c r="H1061" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -38150,7 +38818,7 @@
         <v>7317422.16741888</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -38216,7 +38884,7 @@
         <v>7317422.16741888</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -38282,7 +38950,7 @@
         <v>7344834.32116256</v>
       </c>
       <c r="H1067" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -38315,7 +38983,7 @@
         <v>7344834.32116256</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -38348,7 +39016,7 @@
         <v>7344834.32116256</v>
       </c>
       <c r="H1069" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -38414,7 +39082,7 @@
         <v>7084613.88606256</v>
       </c>
       <c r="H1071" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -38546,7 +39214,7 @@
         <v>7100402.75106256</v>
       </c>
       <c r="H1075" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -38579,7 +39247,7 @@
         <v>7100402.75106256</v>
       </c>
       <c r="H1076" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -38612,7 +39280,7 @@
         <v>7100402.75106256</v>
       </c>
       <c r="H1077" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -38645,7 +39313,7 @@
         <v>7091201.72736256</v>
       </c>
       <c r="H1078" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -38678,7 +39346,7 @@
         <v>7104932.71836256</v>
       </c>
       <c r="H1079" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -38711,7 +39379,7 @@
         <v>7104932.71836256</v>
       </c>
       <c r="H1080" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -38744,7 +39412,7 @@
         <v>6932929.53496256</v>
       </c>
       <c r="H1081" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -38777,7 +39445,7 @@
         <v>6989869.97276256</v>
       </c>
       <c r="H1082" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -38810,7 +39478,7 @@
         <v>6989869.97276256</v>
       </c>
       <c r="H1083" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -38843,7 +39511,7 @@
         <v>6989869.97276256</v>
       </c>
       <c r="H1084" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -38876,7 +39544,7 @@
         <v>6989869.97276256</v>
       </c>
       <c r="H1085" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -38942,7 +39610,7 @@
         <v>6783874.09016256</v>
       </c>
       <c r="H1087" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -38975,7 +39643,7 @@
         <v>6783874.09016256</v>
       </c>
       <c r="H1088" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -39008,7 +39676,7 @@
         <v>6783874.09016256</v>
       </c>
       <c r="H1089" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -39074,7 +39742,7 @@
         <v>6783874.09016256</v>
       </c>
       <c r="H1091" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -39107,7 +39775,7 @@
         <v>6783874.09016256</v>
       </c>
       <c r="H1092" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -39140,7 +39808,7 @@
         <v>6783874.09016256</v>
       </c>
       <c r="H1093" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -39206,7 +39874,7 @@
         <v>6732615.53166256</v>
       </c>
       <c r="H1095" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -39239,7 +39907,7 @@
         <v>6732615.53166256</v>
       </c>
       <c r="H1096" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -39272,7 +39940,7 @@
         <v>6732615.53166256</v>
       </c>
       <c r="H1097" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -39371,7 +40039,7 @@
         <v>6732615.53166256</v>
       </c>
       <c r="H1100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -39404,7 +40072,7 @@
         <v>6732615.53166256</v>
       </c>
       <c r="H1101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -39470,7 +40138,7 @@
         <v>7551953.97246256</v>
       </c>
       <c r="H1103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -39503,7 +40171,7 @@
         <v>7551953.97246256</v>
       </c>
       <c r="H1104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -39536,7 +40204,7 @@
         <v>7551953.97246256</v>
       </c>
       <c r="H1105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -40361,7 +41029,7 @@
         <v>7560448.286016941</v>
       </c>
       <c r="H1130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -40394,7 +41062,7 @@
         <v>7560448.286016941</v>
       </c>
       <c r="H1131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -40427,7 +41095,7 @@
         <v>7560448.286016941</v>
       </c>
       <c r="H1132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -40460,7 +41128,7 @@
         <v>7560448.286016941</v>
       </c>
       <c r="H1133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -40493,7 +41161,7 @@
         <v>7251204.585016941</v>
       </c>
       <c r="H1134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -40526,7 +41194,7 @@
         <v>7251204.585016941</v>
       </c>
       <c r="H1135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -40559,7 +41227,7 @@
         <v>7254374.058616941</v>
       </c>
       <c r="H1136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -40922,7 +41590,7 @@
         <v>7080806.543216941</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -41054,7 +41722,7 @@
         <v>7148214.636116941</v>
       </c>
       <c r="H1151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -41087,7 +41755,7 @@
         <v>7148214.636116941</v>
       </c>
       <c r="H1152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -41120,7 +41788,7 @@
         <v>7148214.636116941</v>
       </c>
       <c r="H1153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -41153,7 +41821,7 @@
         <v>7148214.636116941</v>
       </c>
       <c r="H1154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -41186,7 +41854,7 @@
         <v>7204072.38603589</v>
       </c>
       <c r="H1155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -41659,6 +42327,6 @@
       <c r="M1169" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest XRP.xlsx
+++ b/BackTest/2019-10-14 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6533,11 +6533,9 @@
         <v>146777.41941237</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>329</v>
       </c>
@@ -6574,11 +6572,9 @@
         <v>120744.98701237</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>329</v>
       </c>
@@ -6615,11 +6611,9 @@
         <v>137821.93951237</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>329</v>
       </c>
@@ -6656,11 +6650,9 @@
         <v>137821.93951237</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>329</v>
       </c>
@@ -6697,11 +6689,9 @@
         <v>103558.12781237</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>329</v>
       </c>
@@ -6738,11 +6728,9 @@
         <v>103558.12781237</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
         <v>329</v>
       </c>
@@ -6779,11 +6767,9 @@
         <v>103558.12781237</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>329</v>
       </c>
@@ -6820,11 +6806,9 @@
         <v>103558.12781237</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>329</v>
       </c>
@@ -6861,11 +6845,9 @@
         <v>103558.12781237</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>329</v>
       </c>
@@ -6902,11 +6884,9 @@
         <v>103558.12781237</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
         <v>329</v>
       </c>
@@ -6943,11 +6923,9 @@
         <v>103558.12781237</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>329</v>
       </c>
@@ -6984,11 +6962,9 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
         <v>329</v>
       </c>
@@ -7025,11 +7001,9 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
         <v>329</v>
       </c>
@@ -7066,11 +7040,9 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
         <v>329</v>
       </c>
@@ -7107,11 +7079,9 @@
         <v>96110.04021236996</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
         <v>329</v>
       </c>
@@ -7148,11 +7118,9 @@
         <v>96110.04021236996</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
         <v>329</v>
       </c>
@@ -7189,11 +7157,9 @@
         <v>96106.96151236996</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
         <v>329</v>
       </c>
@@ -7230,11 +7196,9 @@
         <v>96106.96151236996</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
         <v>329</v>
       </c>
@@ -7271,11 +7235,9 @@
         <v>113374.45811237</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
         <v>329</v>
       </c>
@@ -7312,11 +7274,9 @@
         <v>113374.45811237</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
         <v>329</v>
       </c>
@@ -8211,11 +8171,9 @@
         <v>396836.18161237</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
         <v>329</v>
       </c>
@@ -8252,11 +8210,9 @@
         <v>396836.18161237</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
         <v>329</v>
       </c>
@@ -8293,11 +8249,9 @@
         <v>396836.18161237</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
         <v>329</v>
       </c>
@@ -8334,11 +8288,9 @@
         <v>396836.18161237</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
         <v>329</v>
       </c>
@@ -8375,11 +8327,9 @@
         <v>396836.18161237</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
         <v>329</v>
       </c>
@@ -8416,11 +8366,9 @@
         <v>401358.9779123699</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
         <v>329</v>
       </c>
@@ -8496,11 +8444,9 @@
         <v>330065.12041237</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
         <v>329</v>
       </c>
@@ -8537,11 +8483,9 @@
         <v>330065.12041237</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
         <v>329</v>
       </c>
@@ -8578,11 +8522,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
         <v>329</v>
       </c>
@@ -8619,11 +8561,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
         <v>329</v>
       </c>
@@ -8660,11 +8600,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
         <v>329</v>
       </c>
@@ -8701,11 +8639,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
         <v>329</v>
       </c>
@@ -8742,11 +8678,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
         <v>329</v>
       </c>
@@ -8783,11 +8717,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
         <v>329</v>
       </c>
@@ -8824,11 +8756,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
         <v>329</v>
       </c>
@@ -8865,11 +8795,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
         <v>329</v>
       </c>
@@ -8906,11 +8834,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
         <v>329</v>
       </c>
@@ -8947,11 +8873,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
         <v>329</v>
       </c>
@@ -8988,11 +8912,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
         <v>329</v>
       </c>
@@ -9029,11 +8951,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
         <v>329</v>
       </c>
@@ -9070,11 +8990,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
         <v>329</v>
       </c>
@@ -9111,11 +9029,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
         <v>329</v>
       </c>
@@ -9152,11 +9068,9 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
         <v>329</v>
       </c>
@@ -9357,11 +9271,9 @@
         <v>469180.4876123699</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
         <v>329</v>
       </c>
@@ -9480,11 +9392,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
         <v>329</v>
       </c>
@@ -9521,11 +9431,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
         <v>329</v>
       </c>
@@ -9562,11 +9470,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
         <v>329</v>
       </c>
@@ -9603,11 +9509,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
         <v>329</v>
       </c>
@@ -9644,11 +9548,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
         <v>329</v>
       </c>
@@ -9685,11 +9587,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
         <v>329</v>
       </c>
@@ -9726,11 +9626,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
         <v>329</v>
       </c>
@@ -9767,11 +9665,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
         <v>329</v>
       </c>
@@ -9808,11 +9704,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
         <v>329</v>
       </c>
@@ -9849,11 +9743,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
         <v>329</v>
       </c>
@@ -9890,11 +9782,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
         <v>329</v>
       </c>
@@ -9931,11 +9821,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
         <v>329</v>
       </c>
@@ -9972,11 +9860,9 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
         <v>329</v>
       </c>
@@ -10013,11 +9899,9 @@
         <v>831374.42081237</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
         <v>329</v>
       </c>
@@ -10405,11 +10289,9 @@
         <v>838888.9373123699</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
         <v>329</v>
       </c>
@@ -10446,11 +10328,9 @@
         <v>838888.9373123699</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
         <v>329</v>
       </c>
@@ -12437,11 +12317,9 @@
         <v>633306.7761093298</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
         <v>329</v>
       </c>
@@ -12595,11 +12473,9 @@
         <v>535355.9368093298</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
         <v>329</v>
       </c>
@@ -13221,11 +13097,9 @@
         <v>487350.4228093298</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
         <v>329</v>
       </c>
@@ -13262,11 +13136,9 @@
         <v>487350.4228093298</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
         <v>329</v>
       </c>
@@ -13303,11 +13175,9 @@
         <v>487350.4228093298</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
         <v>329</v>
       </c>
@@ -13344,11 +13214,9 @@
         <v>487350.4228093298</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
         <v>329</v>
       </c>
@@ -13385,11 +13253,9 @@
         <v>393019.8138093298</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
         <v>329</v>
       </c>
@@ -13631,11 +13497,9 @@
         <v>376072.2354093298</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
         <v>329</v>
       </c>
@@ -13672,11 +13536,9 @@
         <v>376072.2354093298</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
         <v>329</v>
       </c>
@@ -13795,11 +13657,9 @@
         <v>398500.0749093298</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
         <v>329</v>
       </c>
@@ -13836,11 +13696,9 @@
         <v>316619.4284093297</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
         <v>329</v>
       </c>
@@ -13877,9 +13735,11 @@
         <v>337896.0241093297</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>328</v>
+      </c>
       <c r="J368" t="n">
         <v>329</v>
       </c>
@@ -13994,11 +13854,9 @@
         <v>337889.7789093297</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
         <v>329</v>
       </c>
@@ -14035,11 +13893,9 @@
         <v>355210.7030828797</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
         <v>329</v>
       </c>
@@ -14076,11 +13932,9 @@
         <v>355210.7030828797</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
         <v>329</v>
       </c>
@@ -14117,11 +13971,9 @@
         <v>342455.9235828797</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
         <v>329</v>
       </c>
@@ -14158,11 +14010,9 @@
         <v>351421.3125828797</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
         <v>329</v>
       </c>
@@ -14199,11 +14049,9 @@
         <v>351421.3125828797</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
         <v>329</v>
       </c>
@@ -14240,11 +14088,9 @@
         <v>351421.3125828797</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
         <v>329</v>
       </c>
@@ -14281,11 +14127,9 @@
         <v>260974.3832828797</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
         <v>329</v>
       </c>
@@ -14322,11 +14166,9 @@
         <v>270717.4662828797</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
         <v>329</v>
       </c>
@@ -14363,11 +14205,9 @@
         <v>270717.4662828797</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
         <v>329</v>
       </c>
@@ -14443,11 +14283,9 @@
         <v>272839.3689040897</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
         <v>329</v>
       </c>
@@ -14835,11 +14673,9 @@
         <v>202004.1492525697</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
         <v>329</v>
       </c>
@@ -14915,11 +14751,9 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
         <v>329</v>
       </c>
@@ -14995,11 +14829,9 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
         <v>329</v>
       </c>
@@ -15036,11 +14868,9 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
         <v>329</v>
       </c>
@@ -15077,11 +14907,9 @@
         <v>221740.3909525697</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
         <v>329</v>
       </c>
@@ -15118,11 +14946,9 @@
         <v>221740.3909525697</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
         <v>329</v>
       </c>
@@ -15315,11 +15141,9 @@
         <v>218278.2906525697</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
         <v>329</v>
       </c>
@@ -15356,11 +15180,9 @@
         <v>218279.2906525697</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
         <v>329</v>
       </c>
@@ -16762,7 +16584,7 @@
         <v>1136022.95465197</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
@@ -16770,11 +16592,11 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L441" t="n">
-        <v>1</v>
+        <v>1.007158054711246</v>
       </c>
       <c r="M441" t="inlineStr"/>
     </row>
@@ -16801,17 +16623,11 @@
         <v>1149844.95375197</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>329</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16840,17 +16656,11 @@
         <v>1148854.23255197</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>329</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16879,17 +16689,11 @@
         <v>1148854.23255197</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>329</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16918,17 +16722,11 @@
         <v>1490583.78545197</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>329</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16957,17 +16755,11 @@
         <v>1940252.90988611</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>329</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16996,17 +16788,11 @@
         <v>1940252.90988611</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>329</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17035,17 +16821,11 @@
         <v>2525363.17708611</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>329</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17074,17 +16854,11 @@
         <v>2525363.17708611</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>329</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17113,17 +16887,11 @@
         <v>2525363.17708611</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>329</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17152,17 +16920,11 @@
         <v>2236436.71302791</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>329</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17191,17 +16953,11 @@
         <v>2236436.71302791</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>329</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17230,17 +16986,11 @@
         <v>2457438.95042343</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>329</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17269,17 +17019,11 @@
         <v>2330799.09912343</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>329</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17308,17 +17052,11 @@
         <v>3063962.360123429</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>329</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17347,17 +17085,11 @@
         <v>3063962.360123429</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>329</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17386,17 +17118,11 @@
         <v>3063962.360123429</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>329</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17425,17 +17151,11 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>329</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17464,17 +17184,11 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>329</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17503,17 +17217,11 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>329</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17542,17 +17250,11 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>329</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17581,17 +17283,11 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>329</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17620,17 +17316,11 @@
         <v>3540449.199723429</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>329</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17659,17 +17349,11 @@
         <v>3540449.199723429</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>329</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17698,17 +17382,11 @@
         <v>3540449.199723429</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>329</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17737,17 +17415,11 @@
         <v>3219155.169672989</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>329</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17776,17 +17448,11 @@
         <v>3353811.550772989</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>329</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17815,17 +17481,11 @@
         <v>3353811.550772989</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>329</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17854,17 +17514,11 @@
         <v>3327907.101272989</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>329</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17893,17 +17547,11 @@
         <v>3327907.101272989</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>329</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17932,17 +17580,11 @@
         <v>3327907.101272989</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>329</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17971,17 +17613,11 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>329</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18010,17 +17646,11 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>329</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18049,17 +17679,11 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>329</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18088,17 +17712,11 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>329</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18127,17 +17745,11 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>329</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18166,17 +17778,11 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>329</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18205,17 +17811,11 @@
         <v>3420496.071672989</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>329</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18244,17 +17844,11 @@
         <v>3420496.071672989</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>329</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18283,17 +17877,11 @@
         <v>3997242.442645069</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>329</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18322,17 +17910,11 @@
         <v>3997242.442645069</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>329</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18361,17 +17943,11 @@
         <v>3983585.528245069</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>329</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18400,17 +17976,11 @@
         <v>4007000.022745069</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>329</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18439,17 +18009,11 @@
         <v>3514769.012339059</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>329</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18478,17 +18042,11 @@
         <v>3509873.421239059</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>329</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18517,17 +18075,11 @@
         <v>3509873.421239059</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>329</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18556,17 +18108,11 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>329</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18595,17 +18141,11 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>329</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18634,17 +18174,11 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>329</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18673,17 +18207,11 @@
         <v>3748674.154239059</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>329</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18712,17 +18240,11 @@
         <v>3858978.798857159</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>329</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18751,17 +18273,11 @@
         <v>3807763.40865716</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>329</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18790,17 +18306,11 @@
         <v>3807763.40865716</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>329</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18829,17 +18339,11 @@
         <v>3808320.97385716</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>329</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18868,17 +18372,11 @@
         <v>3808320.97385716</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>329</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18910,14 +18408,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>329</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18949,14 +18441,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>329</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18988,14 +18474,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>329</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19024,17 +18504,11 @@
         <v>3799641.93575716</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>329</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19063,17 +18537,11 @@
         <v>3799641.93575716</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>329</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19102,17 +18570,11 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>329</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19141,17 +18603,11 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>329</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19183,14 +18639,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>329</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19222,14 +18672,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>329</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19261,14 +18705,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>329</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19300,14 +18738,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>329</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19339,14 +18771,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>329</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19378,14 +18804,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>329</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19417,14 +18837,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>329</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19456,14 +18870,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>329</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19495,14 +18903,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>329</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19534,14 +18936,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>329</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19573,14 +18969,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>329</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19612,14 +19002,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>329</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19648,17 +19032,11 @@
         <v>4032862.00850956</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>329</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19690,14 +19068,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>329</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19729,14 +19101,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>329</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19765,17 +19131,11 @@
         <v>4046868.06600956</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>329</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19804,17 +19164,11 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>329</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19843,17 +19197,11 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>329</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19882,17 +19230,11 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>329</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19921,17 +19263,11 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>329</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19963,14 +19299,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>329</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20002,14 +19332,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>329</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20041,14 +19365,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>329</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20080,14 +19398,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>329</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20119,14 +19431,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>329</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20158,14 +19464,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>329</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20197,14 +19497,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>329</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20236,14 +19530,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>329</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20275,14 +19563,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>329</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20314,14 +19596,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>329</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20353,14 +19629,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>329</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20392,14 +19662,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>329</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20431,14 +19695,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>329</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20470,14 +19728,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>329</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20509,14 +19761,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>329</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20548,14 +19794,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>329</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20587,14 +19827,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>329</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20626,14 +19860,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>329</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20665,14 +19893,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>329</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20704,14 +19926,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>329</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20743,14 +19959,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>329</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20782,14 +19992,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>329</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20821,14 +20025,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>329</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20860,14 +20058,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>329</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20899,14 +20091,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>329</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20938,14 +20124,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>329</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20977,14 +20157,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>329</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21016,14 +20190,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>329</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21055,14 +20223,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>329</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21094,14 +20256,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>329</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21133,14 +20289,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>329</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21172,14 +20322,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>329</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21211,14 +20355,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>329</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21250,14 +20388,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>329</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21289,14 +20421,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>329</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21328,14 +20454,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>329</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21367,14 +20487,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>329</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21406,14 +20520,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>329</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21445,14 +20553,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>329</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21484,14 +20586,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>329</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21523,14 +20619,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>329</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21562,14 +20652,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>329</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21601,14 +20685,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>329</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21640,14 +20718,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>329</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21679,14 +20751,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>329</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21718,14 +20784,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>329</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21757,14 +20817,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>329</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21796,14 +20850,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>329</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21835,14 +20883,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>329</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21874,14 +20916,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>329</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21913,14 +20949,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>329</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21952,14 +20982,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>329</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21991,14 +21015,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>329</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22030,14 +21048,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>329</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22069,14 +21081,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>329</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22108,14 +21114,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>329</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22147,14 +21147,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>329</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22186,14 +21180,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>329</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22225,14 +21213,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>329</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22264,14 +21246,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>329</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22303,14 +21279,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>329</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22342,14 +21312,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>329</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22381,14 +21345,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>329</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22420,14 +21378,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>329</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22459,14 +21411,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>329</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22498,14 +21444,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>329</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22537,14 +21477,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>329</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22576,14 +21510,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>329</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22615,14 +21543,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>329</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22654,14 +21576,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>329</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22693,14 +21609,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>329</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22732,14 +21642,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>329</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22771,14 +21675,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>329</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22810,14 +21708,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>329</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22849,14 +21741,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>329</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22888,14 +21774,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>329</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22927,14 +21807,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>329</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22966,14 +21840,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>329</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -23002,17 +21870,11 @@
         <v>5607531.94041108</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>329</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23041,17 +21903,11 @@
         <v>5607341.07371108</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>329</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23080,17 +21936,11 @@
         <v>5607341.07371108</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>329</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -23119,17 +21969,11 @@
         <v>5607341.07371108</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>329</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -23158,17 +22002,11 @@
         <v>5610163.72111108</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>329</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23200,14 +22038,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>329</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23239,14 +22071,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>329</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -23275,17 +22101,11 @@
         <v>5561834.887911079</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>329</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -23314,17 +22134,11 @@
         <v>5561834.887911079</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>329</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23353,17 +22167,11 @@
         <v>5192038.84991108</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>329</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23392,17 +22200,11 @@
         <v>5192038.84991108</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>329</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23434,14 +22236,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>329</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23473,14 +22269,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>329</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23512,14 +22302,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>329</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23551,14 +22335,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>329</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23590,14 +22368,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>329</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23629,14 +22401,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>329</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23668,14 +22434,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>329</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23707,14 +22467,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>329</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23746,14 +22500,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>329</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23782,17 +22530,11 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>329</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23821,17 +22563,11 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>329</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23860,17 +22596,11 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>329</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23899,17 +22629,11 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>329</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23938,17 +22662,11 @@
         <v>5201999.66721108</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>329</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23977,17 +22695,11 @@
         <v>5242219.66721108</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>329</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -24016,17 +22728,11 @@
         <v>5242219.66721108</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>329</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -24055,17 +22761,11 @@
         <v>5242075.37841108</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>329</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -24094,17 +22794,11 @@
         <v>5242075.37841108</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>329</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -24133,17 +22827,11 @@
         <v>5242075.37841108</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>329</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -24172,17 +22860,11 @@
         <v>5227009.23247299</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>329</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -24211,17 +22893,11 @@
         <v>5227020.23247299</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>329</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24250,17 +22926,11 @@
         <v>5227020.23247299</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>329</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24289,17 +22959,11 @@
         <v>5226407.20107299</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>329</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24331,14 +22995,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>329</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24367,17 +23025,11 @@
         <v>5226437.20107299</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>329</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24406,17 +23058,11 @@
         <v>5226437.20107299</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>329</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24445,17 +23091,11 @@
         <v>5226437.20107299</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>329</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24487,14 +23127,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>329</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24523,17 +23157,11 @@
         <v>5354229.26907299</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>329</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24562,17 +23190,11 @@
         <v>5331441.00387299</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>329</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24604,14 +23226,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>329</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24643,14 +23259,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>329</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24682,14 +23292,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>329</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24721,14 +23325,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>329</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24757,17 +23355,11 @@
         <v>6772671.54817774</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>329</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24796,17 +23388,11 @@
         <v>8392675.40197774</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>329</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24838,14 +23424,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>329</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24877,14 +23457,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>329</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24916,14 +23490,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>329</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24952,17 +23520,11 @@
         <v>7340342.80187774</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>329</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24991,17 +23553,11 @@
         <v>6852912.343277739</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>329</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -25030,17 +23586,11 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>329</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -25069,17 +23619,11 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>329</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -25108,17 +23652,11 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>329</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -25147,17 +23685,11 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>329</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -25186,17 +23718,11 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>329</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -25228,14 +23754,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>329</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -25267,14 +23787,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>329</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -25306,14 +23820,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>329</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -25342,17 +23850,11 @@
         <v>6889514.47447774</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>329</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -25381,17 +23883,11 @@
         <v>6893006.78927774</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>329</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -25420,17 +23916,11 @@
         <v>6853467.86717774</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>329</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -25459,17 +23949,11 @@
         <v>6853467.86717774</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>329</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25498,17 +23982,11 @@
         <v>6923195.575177739</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>329</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25537,17 +24015,11 @@
         <v>6923195.575177739</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>329</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25576,17 +24048,11 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>329</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25615,17 +24081,11 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>329</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25654,17 +24114,11 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>329</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25693,17 +24147,11 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>329</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25732,17 +24180,11 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>329</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25771,17 +24213,11 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>329</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25810,17 +24246,11 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>329</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25849,17 +24279,11 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>329</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25888,17 +24312,11 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>329</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25927,17 +24345,11 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>329</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25966,17 +24378,11 @@
         <v>7321885.80414792</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>329</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -26005,17 +24411,11 @@
         <v>7321885.80414792</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>329</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -26044,17 +24444,11 @@
         <v>7394672.54404792</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>329</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -26083,17 +24477,11 @@
         <v>7374693.27214792</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>329</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -26122,17 +24510,11 @@
         <v>7353848.33012219</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>329</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -26161,17 +24543,11 @@
         <v>7355387.91182219</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>329</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -26203,14 +24579,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>329</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -26242,14 +24612,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>329</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -26281,14 +24645,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>329</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -26320,14 +24678,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>329</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -26359,14 +24711,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>329</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -26398,14 +24744,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>329</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -26437,14 +24777,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>329</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -26476,14 +24810,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>329</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -26515,14 +24843,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>329</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -26554,14 +24876,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>329</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -26593,14 +24909,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>329</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -26632,14 +24942,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>329</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -26668,19 +24972,13 @@
         <v>7583547.525622188</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>329</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
-        <v>1.03451367781155</v>
+        <v>1</v>
       </c>
       <c r="M695" t="inlineStr"/>
     </row>
@@ -26707,7 +25005,7 @@
         <v>7924707.452927439</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26740,7 +25038,7 @@
         <v>7924707.452927439</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26773,7 +25071,7 @@
         <v>7988965.512827438</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26806,7 +25104,7 @@
         <v>8496978.200285409</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26839,7 +25137,7 @@
         <v>8093879.213485409</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26938,7 +25236,7 @@
         <v>8170420.106327439</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -27136,7 +25434,7 @@
         <v>8520444.29235507</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -27202,7 +25500,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -27301,7 +25599,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -27334,7 +25632,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -27367,7 +25665,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -27400,7 +25698,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -27433,7 +25731,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -27466,7 +25764,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -27499,7 +25797,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -27532,7 +25830,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -27565,7 +25863,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27598,7 +25896,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27631,7 +25929,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27664,7 +25962,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27697,7 +25995,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27730,7 +26028,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27763,7 +26061,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -28555,7 +26853,7 @@
         <v>7498219.67830179</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -28621,7 +26919,7 @@
         <v>7498219.67830179</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28654,7 +26952,7 @@
         <v>7571269.99840179</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28687,7 +26985,7 @@
         <v>7396850.59270179</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28720,7 +27018,7 @@
         <v>7833632.10419454</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28753,7 +27051,7 @@
         <v>7824056.48689454</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28786,7 +27084,7 @@
         <v>7824056.48689454</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28819,7 +27117,7 @@
         <v>7824056.48689454</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28852,7 +27150,7 @@
         <v>7875895.202394539</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28885,7 +27183,7 @@
         <v>7782595.853194539</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28918,7 +27216,7 @@
         <v>7788454.89622062</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -29578,7 +27876,7 @@
         <v>7867748.079220619</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -29611,7 +27909,7 @@
         <v>7867748.079220619</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -29644,7 +27942,7 @@
         <v>7888521.954620619</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -29677,7 +27975,7 @@
         <v>7888521.954620619</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -29710,7 +28008,7 @@
         <v>7884082.23792062</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -29743,7 +28041,7 @@
         <v>7884082.23792062</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29776,7 +28074,7 @@
         <v>7917467.70602062</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29908,7 +28206,7 @@
         <v>7583813.01270167</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29941,7 +28239,7 @@
         <v>7733699.2894521</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29974,7 +28272,7 @@
         <v>7723282.1728521</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -30304,7 +28602,7 @@
         <v>7623531.776752099</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -30403,7 +28701,7 @@
         <v>7266058.595241309</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -30436,7 +28734,7 @@
         <v>7266058.595241309</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -30469,7 +28767,7 @@
         <v>7266058.595241309</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -30535,7 +28833,7 @@
         <v>6778919.066141309</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -30568,7 +28866,7 @@
         <v>6778919.066141309</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -30601,7 +28899,7 @@
         <v>6778919.066141309</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -30634,7 +28932,7 @@
         <v>6778919.066141309</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30700,7 +28998,7 @@
         <v>6815055.830541309</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -30733,7 +29031,7 @@
         <v>7136078.490641309</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -30766,7 +29064,7 @@
         <v>7136078.490641309</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30799,7 +29097,7 @@
         <v>6821825.667041309</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -30832,7 +29130,7 @@
         <v>6821825.667041309</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -31459,7 +29757,7 @@
         <v>6770744.07095759</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -31492,7 +29790,7 @@
         <v>6771879.28651327</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -31525,7 +29823,7 @@
         <v>6771879.28651327</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -31558,7 +29856,7 @@
         <v>6771879.28651327</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -31591,7 +29889,7 @@
         <v>6771879.28651327</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -31624,7 +29922,7 @@
         <v>6771879.28651327</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -31657,7 +29955,7 @@
         <v>6771879.28651327</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -31690,7 +29988,7 @@
         <v>6764546.82341327</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -31723,7 +30021,7 @@
         <v>6793547.91651327</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -31756,7 +30054,7 @@
         <v>6793547.91651327</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -31789,7 +30087,7 @@
         <v>6793547.91651327</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -31822,7 +30120,7 @@
         <v>6793547.91651327</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -31855,7 +30153,7 @@
         <v>6798470.70051327</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -31888,7 +30186,7 @@
         <v>6798470.70051327</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -32350,7 +30648,7 @@
         <v>6707498.410062119</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -32383,7 +30681,7 @@
         <v>6707667.22676212</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -32416,7 +30714,7 @@
         <v>6703984.99986212</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -32449,7 +30747,7 @@
         <v>6703984.99986212</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -32482,7 +30780,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -32515,7 +30813,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -32548,7 +30846,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -32581,7 +30879,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -32614,7 +30912,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -32647,7 +30945,7 @@
         <v>6635636.309262119</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -32680,7 +30978,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -32713,7 +31011,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -32746,7 +31044,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -32779,7 +31077,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32812,7 +31110,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -32845,7 +31143,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -32878,7 +31176,7 @@
         <v>6767561.43463189</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -32911,7 +31209,7 @@
         <v>6819628.11223189</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -33142,7 +31440,7 @@
         <v>6793505.63803189</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -33175,7 +31473,7 @@
         <v>6793505.63803189</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -33208,7 +31506,7 @@
         <v>6793505.63803189</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -33241,7 +31539,7 @@
         <v>6793505.63803189</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -33307,7 +31605,7 @@
         <v>6793505.63803189</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -33340,7 +31638,7 @@
         <v>6793509.111831889</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -33373,7 +31671,7 @@
         <v>6793509.111831889</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -33406,7 +31704,7 @@
         <v>6793391.30513189</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -33439,7 +31737,7 @@
         <v>6837848.08283189</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -33472,7 +31770,7 @@
         <v>6832510.661531891</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -33505,7 +31803,7 @@
         <v>6832510.661531891</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -33538,7 +31836,7 @@
         <v>6874893.725031891</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -33571,7 +31869,7 @@
         <v>6874530.155231891</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -33604,7 +31902,7 @@
         <v>6874530.155231891</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -33637,7 +31935,7 @@
         <v>6874530.155231891</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -33670,7 +31968,7 @@
         <v>6898180.575131891</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -33703,7 +32001,7 @@
         <v>6882370.044231892</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -33736,7 +32034,7 @@
         <v>6882370.044231892</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -33769,7 +32067,7 @@
         <v>6902507.805348162</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -33901,7 +32199,7 @@
         <v>6927926.525522572</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -33934,7 +32232,7 @@
         <v>6927926.525522572</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -33967,7 +32265,7 @@
         <v>6928541.723171402</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -34231,7 +32529,7 @@
         <v>6571565.371271402</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -34264,7 +32562,7 @@
         <v>6571565.371271402</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -34297,7 +32595,7 @@
         <v>6571565.371271402</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -34330,7 +32628,7 @@
         <v>6572862.371271402</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -34363,7 +32661,7 @@
         <v>6572862.371271402</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -34396,7 +32694,7 @@
         <v>6572862.371271402</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -34429,7 +32727,7 @@
         <v>6572862.371271402</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -34462,7 +32760,7 @@
         <v>6572862.371271402</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -34495,7 +32793,7 @@
         <v>6543852.971972572</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -34528,7 +32826,7 @@
         <v>6543852.971972572</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -34561,7 +32859,7 @@
         <v>6543797.145072572</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -34594,7 +32892,7 @@
         <v>6675744.460372572</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -34627,7 +32925,7 @@
         <v>6675744.460372572</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -34660,7 +32958,7 @@
         <v>6716677.169225042</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34693,7 +32991,7 @@
         <v>6716677.169225042</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34726,7 +33024,7 @@
         <v>6716677.169225042</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34759,7 +33057,7 @@
         <v>6640038.551425042</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34792,7 +33090,7 @@
         <v>6640038.551425042</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34825,7 +33123,7 @@
         <v>7121404.066225042</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34858,7 +33156,7 @@
         <v>7063395.497025042</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34891,7 +33189,7 @@
         <v>7363406.655125041</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -34924,7 +33222,7 @@
         <v>7363406.655125041</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34957,7 +33255,7 @@
         <v>7363406.655125041</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -35452,7 +33750,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -35485,7 +33783,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -35518,7 +33816,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -35551,7 +33849,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -35584,7 +33882,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -35617,7 +33915,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -35650,7 +33948,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -35683,7 +33981,7 @@
         <v>7679670.274425041</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -35716,7 +34014,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -35749,7 +34047,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -35782,7 +34080,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -35815,7 +34113,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -36442,7 +34740,7 @@
         <v>8035157.6338646</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -36475,7 +34773,7 @@
         <v>8069409.6046646</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -36508,7 +34806,7 @@
         <v>8069409.6046646</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -36574,7 +34872,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -36607,7 +34905,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -36640,7 +34938,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -36673,7 +34971,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -36706,7 +35004,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -36739,7 +35037,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -36772,7 +35070,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36805,7 +35103,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -36838,7 +35136,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36871,7 +35169,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -36904,7 +35202,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -36937,7 +35235,7 @@
         <v>7243729.135664601</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -36970,7 +35268,7 @@
         <v>7243729.135664601</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -37003,7 +35301,7 @@
         <v>7243729.135664601</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -37036,7 +35334,7 @@
         <v>7243729.135664601</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -37069,7 +35367,7 @@
         <v>7243729.135664601</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -37102,7 +35400,7 @@
         <v>7243729.135664601</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -37135,7 +35433,7 @@
         <v>7454858.081839811</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -37828,7 +36126,7 @@
         <v>6769689.043804251</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -37861,7 +36159,7 @@
         <v>6761056.278904251</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -37894,7 +36192,7 @@
         <v>6764286.608304251</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -37927,7 +36225,7 @@
         <v>6762722.253404251</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -37993,7 +36291,7 @@
         <v>6630227.617504251</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -38026,7 +36324,7 @@
         <v>6630227.617504251</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -38059,7 +36357,7 @@
         <v>6694665.922404251</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -38092,7 +36390,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -38125,7 +36423,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -38158,7 +36456,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -38191,7 +36489,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -38224,7 +36522,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -38257,7 +36555,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -38290,7 +36588,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -38323,7 +36621,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -38356,7 +36654,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -38389,7 +36687,7 @@
         <v>6647854.922104251</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -38422,7 +36720,7 @@
         <v>6610278.85370425</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -38455,7 +36753,7 @@
         <v>6833158.781104251</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -38488,7 +36786,7 @@
         <v>6784509.050104251</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -38521,7 +36819,7 @@
         <v>6784509.050104251</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -38554,7 +36852,7 @@
         <v>6784509.050104251</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -38587,7 +36885,7 @@
         <v>6702001.021304251</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -38620,7 +36918,7 @@
         <v>7363771.569221901</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -38653,7 +36951,7 @@
         <v>7281118.6654219</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -38686,7 +36984,7 @@
         <v>7311437.370248291</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -38719,7 +37017,7 @@
         <v>7311437.370248291</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -38818,7 +37116,7 @@
         <v>7317422.16741888</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -41590,7 +39888,7 @@
         <v>7080806.543216941</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -41722,7 +40020,7 @@
         <v>7148214.636116941</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -41755,7 +40053,7 @@
         <v>7148214.636116941</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -41821,7 +40119,7 @@
         <v>7148214.636116941</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -42327,6 +40625,6 @@
       <c r="M1169" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest XRP.xlsx
+++ b/BackTest/2019-10-14 BackTest XRP.xlsx
@@ -6127,14 +6127,10 @@
         <v>154200.55941237</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>329</v>
-      </c>
-      <c r="J174" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6164,19 +6160,11 @@
         <v>154200.55941237</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>327</v>
-      </c>
-      <c r="J175" t="n">
-        <v>329</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6205,19 +6193,11 @@
         <v>154200.55941237</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>327</v>
-      </c>
-      <c r="J176" t="n">
-        <v>329</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6246,19 +6226,11 @@
         <v>154200.55941237</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>327</v>
-      </c>
-      <c r="J177" t="n">
-        <v>329</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6287,19 +6259,11 @@
         <v>155246.47091237</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>327</v>
-      </c>
-      <c r="J178" t="n">
-        <v>329</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6328,19 +6292,11 @@
         <v>2722.957612369966</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>328</v>
-      </c>
-      <c r="J179" t="n">
-        <v>329</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6369,19 +6325,11 @@
         <v>2499.957612369966</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>327</v>
-      </c>
-      <c r="J180" t="n">
-        <v>329</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6416,13 +6364,9 @@
         <v>326</v>
       </c>
       <c r="J181" t="n">
-        <v>329</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6451,17 +6395,15 @@
         <v>146777.41941237</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -6492,17 +6434,15 @@
         <v>146777.41941237</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -6536,14 +6476,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>329</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6575,14 +6509,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>329</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6614,14 +6542,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>329</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6653,14 +6575,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>329</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6692,14 +6608,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>329</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6731,14 +6641,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>329</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6770,14 +6674,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>329</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6809,14 +6707,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>329</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6848,14 +6740,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>329</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6884,15 +6770,15 @@
         <v>103558.12781237</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>328</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -6923,12 +6809,12 @@
         <v>103558.12781237</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>328</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6962,12 +6848,12 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>328</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7001,12 +6887,12 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>327</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7040,12 +6926,12 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>327</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7079,12 +6965,12 @@
         <v>96110.04021236996</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>327</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7118,12 +7004,12 @@
         <v>96110.04021236996</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>328</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7157,12 +7043,12 @@
         <v>96106.96151236996</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>328</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7196,12 +7082,12 @@
         <v>96106.96151236996</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>327</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7235,12 +7121,12 @@
         <v>113374.45811237</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>327</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7274,12 +7160,12 @@
         <v>113374.45811237</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>328</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7313,12 +7199,12 @@
         <v>246592.84921237</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>328</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7352,12 +7238,12 @@
         <v>242729.66781237</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
         <v>329</v>
       </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7391,12 +7277,12 @@
         <v>242729.66781237</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>328</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7430,12 +7316,12 @@
         <v>242729.66781237</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>328</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7469,12 +7355,12 @@
         <v>242729.66781237</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>328</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7508,12 +7394,12 @@
         <v>242729.66781237</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>328</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7547,12 +7433,12 @@
         <v>242729.66781237</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>328</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7586,12 +7472,12 @@
         <v>405972.33141237</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>328</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7628,9 +7514,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>329</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7667,9 +7551,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>329</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7706,9 +7588,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>329</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7745,9 +7625,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>329</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7784,9 +7662,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>329</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7820,12 +7696,12 @@
         <v>403454.59501237</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>328</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7859,12 +7735,12 @@
         <v>403454.59501237</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>328</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7898,12 +7774,12 @@
         <v>403454.59501237</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>328</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7937,12 +7813,12 @@
         <v>403454.59501237</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>328</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7976,12 +7852,12 @@
         <v>404275.8016123699</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>328</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8018,9 +7894,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>329</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8054,12 +7928,12 @@
         <v>396836.18161237</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>328</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8093,12 +7967,12 @@
         <v>396836.18161237</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>328</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8132,12 +8006,12 @@
         <v>396836.18161237</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>328</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8171,12 +8045,12 @@
         <v>396836.18161237</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>328</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8210,12 +8084,12 @@
         <v>396836.18161237</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>328</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8249,12 +8123,12 @@
         <v>396836.18161237</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>328</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8288,12 +8162,12 @@
         <v>396836.18161237</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>328</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8327,12 +8201,12 @@
         <v>396836.18161237</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>328</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8366,12 +8240,12 @@
         <v>401358.9779123699</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>328</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8405,12 +8279,12 @@
         <v>329799.20251237</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
         <v>329</v>
       </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8444,12 +8318,12 @@
         <v>330065.12041237</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>328</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8483,12 +8357,12 @@
         <v>330065.12041237</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
         <v>329</v>
       </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8522,12 +8396,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
         <v>329</v>
       </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8561,12 +8435,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>328</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8600,12 +8474,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>328</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8639,12 +8513,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>328</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8678,12 +8552,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>328</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8717,12 +8591,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>328</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8756,12 +8630,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>328</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8795,12 +8669,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>328</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8834,12 +8708,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>328</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8873,12 +8747,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>328</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8912,12 +8786,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>328</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8951,12 +8825,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>328</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8990,12 +8864,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>328</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9029,12 +8903,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>328</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9068,12 +8942,12 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>328</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9112,9 +8986,7 @@
       <c r="I250" t="n">
         <v>328</v>
       </c>
-      <c r="J250" t="n">
-        <v>329</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9153,9 +9025,7 @@
       <c r="I251" t="n">
         <v>328</v>
       </c>
-      <c r="J251" t="n">
-        <v>329</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9194,9 +9064,7 @@
       <c r="I252" t="n">
         <v>328</v>
       </c>
-      <c r="J252" t="n">
-        <v>329</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9235,9 +9103,7 @@
       <c r="I253" t="n">
         <v>328</v>
       </c>
-      <c r="J253" t="n">
-        <v>329</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9271,12 +9137,12 @@
         <v>469180.4876123699</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
         <v>329</v>
       </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9315,9 +9181,7 @@
       <c r="I255" t="n">
         <v>328</v>
       </c>
-      <c r="J255" t="n">
-        <v>329</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9356,9 +9220,7 @@
       <c r="I256" t="n">
         <v>328</v>
       </c>
-      <c r="J256" t="n">
-        <v>329</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9392,12 +9254,12 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
         <v>329</v>
       </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9431,12 +9293,12 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
         <v>329</v>
       </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9470,12 +9332,12 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
         <v>329</v>
       </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9509,12 +9371,12 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
         <v>329</v>
       </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9548,12 +9410,12 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
         <v>329</v>
       </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9587,12 +9449,12 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
         <v>329</v>
       </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9626,12 +9488,12 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
         <v>329</v>
       </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9665,12 +9527,12 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
         <v>329</v>
       </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9707,9 +9569,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>329</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9743,12 +9603,12 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
         <v>329</v>
       </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9782,12 +9642,12 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
         <v>329</v>
       </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9821,12 +9681,12 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
         <v>329</v>
       </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9863,9 +9723,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>329</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9899,12 +9757,12 @@
         <v>831374.42081237</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
         <v>329</v>
       </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9941,9 +9799,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>329</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9980,9 +9836,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>329</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10019,9 +9873,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>329</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10058,9 +9910,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>329</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10097,9 +9947,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>329</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10136,9 +9984,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>329</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10175,9 +10021,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>329</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10214,9 +10058,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>329</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10253,9 +10095,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>329</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10292,9 +10132,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>329</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10331,9 +10169,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>329</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10370,9 +10206,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>329</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10409,9 +10243,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>329</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10448,9 +10280,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>329</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10487,9 +10317,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>329</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10526,9 +10354,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>329</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10565,9 +10391,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>329</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10604,9 +10428,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>329</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10643,9 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>329</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10682,9 +10502,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>329</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10721,9 +10539,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>329</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10760,9 +10576,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>329</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10799,9 +10613,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>329</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10838,9 +10650,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>329</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10877,9 +10687,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>329</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10916,9 +10724,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>329</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10955,9 +10761,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>329</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10994,9 +10798,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>329</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11033,9 +10835,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>329</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11072,9 +10872,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>329</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11111,9 +10909,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>329</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11150,9 +10946,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>329</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11189,9 +10983,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>329</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11228,9 +11020,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>329</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11267,9 +11057,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>329</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11306,9 +11094,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>329</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11345,9 +11131,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>329</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11384,9 +11168,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>329</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11423,9 +11205,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>329</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11462,9 +11242,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>329</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11501,9 +11279,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>329</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11540,9 +11316,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>329</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11579,9 +11353,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>329</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11618,9 +11390,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>329</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11657,9 +11427,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>329</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11696,9 +11464,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>329</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11735,9 +11501,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>329</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11774,9 +11538,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>329</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11813,9 +11575,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>329</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11852,9 +11612,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>329</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11891,9 +11649,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>329</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11930,9 +11686,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>329</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11969,9 +11723,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>329</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12008,9 +11760,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>329</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12047,9 +11797,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>329</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12086,9 +11834,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>329</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12125,9 +11871,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>329</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12164,9 +11908,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>329</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12203,9 +11945,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>329</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12242,9 +11982,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>329</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12281,9 +12019,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>329</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12320,9 +12056,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>329</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12359,9 +12093,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>329</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12398,9 +12130,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>329</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12437,9 +12167,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>329</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12476,9 +12204,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>329</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12515,9 +12241,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>329</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12554,9 +12278,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>329</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12593,9 +12315,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>329</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12632,9 +12352,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>329</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12671,9 +12389,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>329</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12710,9 +12426,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>329</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12749,9 +12463,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>329</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12788,9 +12500,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>329</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12827,9 +12537,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>329</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12866,9 +12574,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>329</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12905,9 +12611,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>329</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12944,9 +12648,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>329</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12983,9 +12685,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>329</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13022,9 +12722,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>329</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13061,9 +12759,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>329</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13100,9 +12796,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>329</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13139,9 +12833,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>329</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13178,9 +12870,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>329</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13217,9 +12907,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>329</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13256,9 +12944,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>329</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13297,9 +12983,7 @@
       <c r="I357" t="n">
         <v>327</v>
       </c>
-      <c r="J357" t="n">
-        <v>329</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13338,9 +13022,7 @@
       <c r="I358" t="n">
         <v>327</v>
       </c>
-      <c r="J358" t="n">
-        <v>329</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13374,14 +13056,10 @@
         <v>356463.0673093298</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>328</v>
-      </c>
-      <c r="J359" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13420,9 +13098,7 @@
       <c r="I360" t="n">
         <v>327</v>
       </c>
-      <c r="J360" t="n">
-        <v>329</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13461,9 +13137,7 @@
       <c r="I361" t="n">
         <v>328</v>
       </c>
-      <c r="J361" t="n">
-        <v>329</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13497,12 +13171,12 @@
         <v>376072.2354093298</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>328</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13539,9 +13213,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>329</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13580,9 +13252,7 @@
       <c r="I364" t="n">
         <v>328</v>
       </c>
-      <c r="J364" t="n">
-        <v>329</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13621,9 +13291,7 @@
       <c r="I365" t="n">
         <v>328</v>
       </c>
-      <c r="J365" t="n">
-        <v>329</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13657,12 +13325,12 @@
         <v>398500.0749093298</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
         <v>329</v>
       </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13699,9 +13367,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>329</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13740,9 +13406,7 @@
       <c r="I368" t="n">
         <v>328</v>
       </c>
-      <c r="J368" t="n">
-        <v>329</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13779,9 +13443,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>329</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13818,9 +13480,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>329</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13857,9 +13517,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>329</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13893,12 +13551,12 @@
         <v>355210.7030828797</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>328</v>
+      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13935,9 +13593,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>329</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13971,12 +13627,12 @@
         <v>342455.9235828797</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
         <v>329</v>
       </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14010,12 +13666,12 @@
         <v>351421.3125828797</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>328</v>
+      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14052,9 +13708,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>329</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14091,9 +13745,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>329</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14130,9 +13782,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>329</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14166,12 +13816,12 @@
         <v>270717.4662828797</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>328</v>
+      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14208,9 +13858,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>329</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14247,9 +13895,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>329</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14286,9 +13932,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>329</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14325,9 +13969,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>329</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14364,9 +14006,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>329</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14403,9 +14043,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>329</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14442,9 +14080,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>329</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14481,9 +14117,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>329</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14520,9 +14154,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>329</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14556,12 +14188,12 @@
         <v>208975.6232040897</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
         <v>329</v>
       </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14598,9 +14230,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>329</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14634,12 +14264,12 @@
         <v>200843.0644040897</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>328</v>
+      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14673,12 +14303,12 @@
         <v>202004.1492525697</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>329</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>328</v>
+      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14715,9 +14345,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>329</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14754,9 +14382,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>329</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14790,12 +14416,12 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
         <v>329</v>
       </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14829,12 +14455,12 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
         <v>329</v>
       </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14868,12 +14494,12 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
         <v>329</v>
       </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14910,9 +14536,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>329</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14949,9 +14573,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>329</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14988,9 +14610,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>329</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15027,9 +14647,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>329</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15063,12 +14681,12 @@
         <v>218278.2906525697</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
         <v>329</v>
       </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15105,9 +14723,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>329</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15144,9 +14760,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>329</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15183,9 +14797,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>329</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15222,9 +14834,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>329</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15261,9 +14871,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>329</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15300,9 +14908,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>329</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15339,9 +14945,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>329</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15378,9 +14982,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>329</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15417,9 +15019,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>329</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15456,9 +15056,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>329</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15495,9 +15093,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>329</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15534,9 +15130,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>329</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15573,9 +15167,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>329</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15612,9 +15204,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>329</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15651,9 +15241,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>329</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15690,9 +15278,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>329</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15729,9 +15315,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>329</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15768,9 +15352,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>329</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15807,9 +15389,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>329</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15846,9 +15426,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>329</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15885,9 +15463,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>329</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15924,9 +15500,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>329</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15963,9 +15537,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>329</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16002,9 +15574,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>329</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16041,9 +15611,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>329</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16080,9 +15648,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>329</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16119,9 +15685,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>329</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16158,9 +15722,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>329</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16197,9 +15759,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>329</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16236,9 +15796,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>329</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16275,9 +15833,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>329</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16314,9 +15870,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>329</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16353,9 +15907,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>329</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16392,9 +15944,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>329</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16431,9 +15981,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>329</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16470,9 +16018,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>329</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16509,9 +16055,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>329</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16548,9 +16092,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>329</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16584,19 +16126,17 @@
         <v>1136022.95465197</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>329</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L441" t="n">
-        <v>1.007158054711246</v>
+        <v>1</v>
       </c>
       <c r="M441" t="inlineStr"/>
     </row>
@@ -16623,11 +16163,15 @@
         <v>1149844.95375197</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16656,11 +16200,15 @@
         <v>1148854.23255197</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16689,11 +16237,15 @@
         <v>1148854.23255197</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16722,11 +16274,15 @@
         <v>1490583.78545197</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16755,11 +16311,15 @@
         <v>1940252.90988611</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16788,11 +16348,15 @@
         <v>1940252.90988611</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16821,11 +16385,15 @@
         <v>2525363.17708611</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16854,11 +16422,15 @@
         <v>2525363.17708611</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16887,11 +16459,15 @@
         <v>2525363.17708611</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16920,11 +16496,15 @@
         <v>2236436.71302791</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16953,11 +16533,15 @@
         <v>2236436.71302791</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16986,11 +16570,15 @@
         <v>2457438.95042343</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17019,11 +16607,15 @@
         <v>2330799.09912343</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17052,11 +16644,15 @@
         <v>3063962.360123429</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17085,11 +16681,15 @@
         <v>3063962.360123429</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17118,11 +16718,15 @@
         <v>3063962.360123429</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17151,11 +16755,15 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17184,11 +16792,15 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17217,11 +16829,15 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17250,11 +16866,15 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17283,11 +16903,15 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17316,11 +16940,15 @@
         <v>3540449.199723429</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17349,11 +16977,15 @@
         <v>3540449.199723429</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17382,11 +17014,15 @@
         <v>3540449.199723429</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17415,11 +17051,15 @@
         <v>3219155.169672989</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17448,11 +17088,15 @@
         <v>3353811.550772989</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17481,11 +17125,15 @@
         <v>3353811.550772989</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17514,11 +17162,15 @@
         <v>3327907.101272989</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17547,11 +17199,15 @@
         <v>3327907.101272989</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17580,11 +17236,15 @@
         <v>3327907.101272989</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17613,11 +17273,15 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17646,11 +17310,15 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17679,11 +17347,15 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17712,11 +17384,15 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17745,11 +17421,15 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17778,11 +17458,15 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17811,11 +17495,15 @@
         <v>3420496.071672989</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17844,11 +17532,15 @@
         <v>3420496.071672989</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17877,11 +17569,15 @@
         <v>3997242.442645069</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17910,11 +17606,15 @@
         <v>3997242.442645069</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17943,11 +17643,15 @@
         <v>3983585.528245069</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17976,11 +17680,15 @@
         <v>4007000.022745069</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18009,11 +17717,15 @@
         <v>3514769.012339059</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18042,11 +17754,15 @@
         <v>3509873.421239059</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18075,11 +17791,15 @@
         <v>3509873.421239059</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18108,11 +17828,15 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18141,11 +17865,15 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18174,11 +17902,15 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18207,11 +17939,15 @@
         <v>3748674.154239059</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18240,11 +17976,15 @@
         <v>3858978.798857159</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18273,11 +18013,15 @@
         <v>3807763.40865716</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18306,11 +18050,15 @@
         <v>3807763.40865716</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18339,11 +18087,15 @@
         <v>3808320.97385716</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18372,11 +18124,15 @@
         <v>3808320.97385716</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18409,7 +18165,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18442,7 +18202,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18475,7 +18239,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18504,11 +18272,15 @@
         <v>3799641.93575716</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18537,11 +18309,15 @@
         <v>3799641.93575716</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18570,11 +18346,15 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18603,11 +18383,15 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18640,7 +18424,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18673,7 +18461,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18706,7 +18498,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18739,7 +18535,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18772,7 +18572,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18805,7 +18609,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18838,7 +18646,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18871,7 +18683,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18904,7 +18720,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18937,7 +18757,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18970,7 +18794,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19003,7 +18831,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19032,11 +18864,15 @@
         <v>4032862.00850956</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19069,7 +18905,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19102,7 +18942,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19131,11 +18975,15 @@
         <v>4046868.06600956</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19164,11 +19012,15 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19197,11 +19049,15 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19230,11 +19086,15 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19263,11 +19123,15 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19300,7 +19164,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19333,7 +19201,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19366,7 +19238,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19399,7 +19275,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19432,7 +19312,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19465,7 +19349,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19498,7 +19386,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19531,7 +19423,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19564,7 +19460,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19597,7 +19497,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19630,7 +19534,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19663,7 +19571,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19696,7 +19608,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19729,7 +19645,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19762,7 +19682,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19795,7 +19719,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19828,7 +19756,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19861,7 +19793,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19894,7 +19830,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19927,7 +19867,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19960,7 +19904,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19993,7 +19941,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20026,7 +19978,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20059,7 +20015,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20092,7 +20052,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20125,7 +20089,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20158,7 +20126,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20191,7 +20163,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20224,7 +20200,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20257,7 +20237,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20290,7 +20274,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20323,7 +20311,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20356,7 +20348,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20389,7 +20385,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20422,7 +20422,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20455,7 +20459,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20488,7 +20496,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20521,7 +20533,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20554,7 +20570,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20587,7 +20607,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20620,7 +20644,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20653,7 +20681,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20686,7 +20718,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20719,7 +20755,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20752,7 +20792,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20785,7 +20829,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20818,7 +20866,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20851,7 +20903,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20884,7 +20940,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20917,7 +20977,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20950,7 +21014,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20983,7 +21051,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21016,7 +21088,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21049,7 +21125,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21082,7 +21162,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21115,7 +21199,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21148,7 +21236,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21181,7 +21273,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21214,7 +21310,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21247,7 +21347,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21280,7 +21384,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21313,7 +21421,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21346,7 +21458,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21379,7 +21495,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21412,7 +21532,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21445,7 +21569,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21478,7 +21606,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21511,7 +21643,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21544,7 +21680,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21577,7 +21717,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21610,7 +21754,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21643,7 +21791,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21676,7 +21828,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21709,7 +21865,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21742,7 +21902,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21775,7 +21939,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21808,7 +21976,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21841,7 +22013,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21870,11 +22046,15 @@
         <v>5607531.94041108</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21903,11 +22083,15 @@
         <v>5607341.07371108</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21936,11 +22120,15 @@
         <v>5607341.07371108</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21969,11 +22157,15 @@
         <v>5607341.07371108</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22002,11 +22194,15 @@
         <v>5610163.72111108</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22039,7 +22235,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22072,7 +22272,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22101,11 +22305,15 @@
         <v>5561834.887911079</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22134,11 +22342,15 @@
         <v>5561834.887911079</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22167,11 +22379,15 @@
         <v>5192038.84991108</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22200,11 +22416,15 @@
         <v>5192038.84991108</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22237,7 +22457,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22270,7 +22494,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22303,7 +22531,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22336,7 +22568,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22369,7 +22605,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22402,7 +22642,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22435,7 +22679,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22468,7 +22716,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22501,7 +22753,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22530,11 +22786,15 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22563,11 +22823,15 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22596,11 +22860,15 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22629,11 +22897,15 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22662,11 +22934,15 @@
         <v>5201999.66721108</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22695,11 +22971,15 @@
         <v>5242219.66721108</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22728,11 +23008,15 @@
         <v>5242219.66721108</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22761,11 +23045,15 @@
         <v>5242075.37841108</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22794,11 +23082,15 @@
         <v>5242075.37841108</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22827,11 +23119,15 @@
         <v>5242075.37841108</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22860,11 +23156,15 @@
         <v>5227009.23247299</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22893,11 +23193,15 @@
         <v>5227020.23247299</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22926,11 +23230,15 @@
         <v>5227020.23247299</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22959,11 +23267,15 @@
         <v>5226407.20107299</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22996,7 +23308,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23025,11 +23341,15 @@
         <v>5226437.20107299</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23058,11 +23378,15 @@
         <v>5226437.20107299</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23091,11 +23415,15 @@
         <v>5226437.20107299</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23128,7 +23456,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23157,11 +23489,15 @@
         <v>5354229.26907299</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23190,11 +23526,15 @@
         <v>5331441.00387299</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23227,7 +23567,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23260,7 +23604,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23293,7 +23641,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23326,7 +23678,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23355,11 +23711,15 @@
         <v>6772671.54817774</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23388,11 +23748,15 @@
         <v>8392675.40197774</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23425,7 +23789,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23458,7 +23826,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23491,7 +23863,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23520,11 +23896,15 @@
         <v>7340342.80187774</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23553,11 +23933,15 @@
         <v>6852912.343277739</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23586,11 +23970,15 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23619,11 +24007,15 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23652,11 +24044,15 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23685,11 +24081,15 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23718,11 +24118,15 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23755,7 +24159,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23788,7 +24196,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23821,7 +24233,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23850,11 +24266,15 @@
         <v>6889514.47447774</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23883,11 +24303,15 @@
         <v>6893006.78927774</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23916,11 +24340,15 @@
         <v>6853467.86717774</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23949,11 +24377,15 @@
         <v>6853467.86717774</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23982,11 +24414,15 @@
         <v>6923195.575177739</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24015,11 +24451,15 @@
         <v>6923195.575177739</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24048,11 +24488,15 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24081,11 +24525,15 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24114,11 +24562,15 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24147,11 +24599,15 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24180,11 +24636,15 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24213,11 +24673,15 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24246,11 +24710,15 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24279,11 +24747,15 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24312,11 +24784,15 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24345,11 +24821,15 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24378,11 +24858,15 @@
         <v>7321885.80414792</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24411,11 +24895,15 @@
         <v>7321885.80414792</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24444,11 +24932,15 @@
         <v>7394672.54404792</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24477,11 +24969,15 @@
         <v>7374693.27214792</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24510,11 +25006,15 @@
         <v>7353848.33012219</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24543,11 +25043,15 @@
         <v>7355387.91182219</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24580,7 +25084,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24613,7 +25121,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24646,7 +25158,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24679,7 +25195,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24712,7 +25232,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24745,7 +25269,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24778,7 +25306,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24811,7 +25343,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24844,7 +25380,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24877,7 +25417,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24910,7 +25454,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24943,7 +25491,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24976,7 +25528,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25009,7 +25565,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25042,7 +25602,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25071,14 +25635,16 @@
         <v>7988965.512827438</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
-      <c r="L698" t="n">
-        <v>1</v>
-      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L698" t="inlineStr"/>
       <c r="M698" t="inlineStr"/>
     </row>
     <row r="699">
@@ -25104,7 +25670,7 @@
         <v>8496978.200285409</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25137,7 +25703,7 @@
         <v>8093879.213485409</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25170,7 +25736,7 @@
         <v>8170420.106327439</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25203,7 +25769,7 @@
         <v>8170420.106327439</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25236,7 +25802,7 @@
         <v>8170420.106327439</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25269,7 +25835,7 @@
         <v>8168739.310627439</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25302,7 +25868,7 @@
         <v>8485604.92105113</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25335,7 +25901,7 @@
         <v>8691649.89681242</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25368,7 +25934,7 @@
         <v>8509959.521712421</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25401,7 +25967,7 @@
         <v>8621573.684455071</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25434,7 +26000,7 @@
         <v>8520444.29235507</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25467,7 +26033,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25500,7 +26066,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25533,7 +26099,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25566,7 +26132,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25599,7 +26165,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25632,7 +26198,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25665,7 +26231,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25698,7 +26264,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25731,7 +26297,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25764,7 +26330,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25797,7 +26363,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25830,7 +26396,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25863,7 +26429,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25896,7 +26462,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25929,7 +26495,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25962,7 +26528,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25995,7 +26561,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26028,7 +26594,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26061,7 +26627,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26094,7 +26660,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26127,7 +26693,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26160,7 +26726,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26193,7 +26759,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26226,7 +26792,7 @@
         <v>7978438.49715973</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26259,7 +26825,7 @@
         <v>7978438.49715973</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26292,7 +26858,7 @@
         <v>7978438.49715973</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26325,7 +26891,7 @@
         <v>7805828.01433076</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26358,7 +26924,7 @@
         <v>7812753.66020179</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26391,7 +26957,7 @@
         <v>7812753.66020179</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26424,7 +26990,7 @@
         <v>7812753.66020179</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26457,7 +27023,7 @@
         <v>7814243.703701789</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26490,7 +27056,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26523,7 +27089,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26556,7 +27122,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26589,7 +27155,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26622,7 +27188,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26655,7 +27221,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26688,7 +27254,7 @@
         <v>7800023.60470179</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26721,7 +27287,7 @@
         <v>7800023.60470179</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26754,7 +27320,7 @@
         <v>7802638.06890179</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26787,7 +27353,7 @@
         <v>7657575.88150179</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26820,7 +27386,7 @@
         <v>7709480.51430179</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26853,7 +27419,7 @@
         <v>7498219.67830179</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26886,7 +27452,7 @@
         <v>7498219.67830179</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26919,7 +27485,7 @@
         <v>7498219.67830179</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26952,7 +27518,7 @@
         <v>7571269.99840179</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26985,7 +27551,7 @@
         <v>7396850.59270179</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27018,7 +27584,7 @@
         <v>7833632.10419454</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27051,7 +27617,7 @@
         <v>7824056.48689454</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27084,7 +27650,7 @@
         <v>7824056.48689454</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27117,7 +27683,7 @@
         <v>7824056.48689454</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27150,7 +27716,7 @@
         <v>7875895.202394539</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27183,7 +27749,7 @@
         <v>7782595.853194539</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27216,7 +27782,7 @@
         <v>7788454.89622062</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27249,7 +27815,7 @@
         <v>7775955.196920619</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27282,7 +27848,7 @@
         <v>8009516.840720619</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27315,7 +27881,7 @@
         <v>8009516.840720619</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27348,7 +27914,7 @@
         <v>7982439.773620619</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27381,7 +27947,7 @@
         <v>7982439.773620619</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27414,7 +27980,7 @@
         <v>7982439.773620619</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27447,7 +28013,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27480,7 +28046,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27513,7 +28079,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27546,7 +28112,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27579,7 +28145,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27612,7 +28178,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27645,7 +28211,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27678,7 +28244,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27711,7 +28277,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27744,7 +28310,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27777,7 +28343,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27810,7 +28376,7 @@
         <v>7867748.079220619</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27843,7 +28409,7 @@
         <v>7867748.079220619</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27876,7 +28442,7 @@
         <v>7867748.079220619</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27975,7 +28541,7 @@
         <v>7888521.954620619</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28008,7 +28574,7 @@
         <v>7884082.23792062</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28041,7 +28607,7 @@
         <v>7884082.23792062</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28074,7 +28640,7 @@
         <v>7917467.70602062</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28107,7 +28673,7 @@
         <v>7917467.70602062</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28140,7 +28706,7 @@
         <v>7638185.075120619</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -30219,7 +30785,7 @@
         <v>6787746.35171327</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30252,7 +30818,7 @@
         <v>6787746.35171327</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30318,7 +30884,7 @@
         <v>6755621.418755139</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30351,7 +30917,7 @@
         <v>6756508.56985514</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30384,7 +30950,7 @@
         <v>6752144.161555139</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30417,7 +30983,7 @@
         <v>6752144.161555139</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30450,7 +31016,7 @@
         <v>6758341.746599319</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30483,7 +31049,7 @@
         <v>6758341.746599319</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30516,7 +31082,7 @@
         <v>6694776.626499319</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30549,7 +31115,7 @@
         <v>6723343.486899319</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30582,7 +31148,7 @@
         <v>6707498.410062119</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30615,7 +31181,7 @@
         <v>6707498.410062119</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30714,7 +31280,7 @@
         <v>6703984.99986212</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30846,7 +31412,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30879,7 +31445,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30912,7 +31478,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30945,7 +31511,7 @@
         <v>6635636.309262119</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31044,7 +31610,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31077,7 +31643,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31110,7 +31676,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31143,7 +31709,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31209,7 +31775,7 @@
         <v>6819628.11223189</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31341,7 +31907,7 @@
         <v>6819249.375031889</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31374,7 +31940,7 @@
         <v>6793505.63803189</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31704,7 +32270,7 @@
         <v>6793391.30513189</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31968,7 +32534,7 @@
         <v>6898180.575131891</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32001,7 +32567,7 @@
         <v>6882370.044231892</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32034,7 +32600,7 @@
         <v>6882370.044231892</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32100,7 +32666,7 @@
         <v>6901836.134948161</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32166,7 +32732,7 @@
         <v>6931536.373922572</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32199,7 +32765,7 @@
         <v>6927926.525522572</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32298,7 +32864,7 @@
         <v>6927377.081971401</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32331,7 +32897,7 @@
         <v>6927404.445271402</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32364,7 +32930,7 @@
         <v>6926540.432171402</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32397,7 +32963,7 @@
         <v>6927202.786771402</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32430,7 +32996,7 @@
         <v>6927202.786771402</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32463,7 +33029,7 @@
         <v>6927202.786771402</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32496,7 +33062,7 @@
         <v>6582985.262871401</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32529,7 +33095,7 @@
         <v>6571565.371271402</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32694,7 +33260,7 @@
         <v>6572862.371271402</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -34047,7 +34613,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34080,7 +34646,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34113,7 +34679,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34278,7 +34844,7 @@
         <v>7908126.834325041</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34311,7 +34877,7 @@
         <v>8074636.580464601</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34344,7 +34910,7 @@
         <v>8074636.580464601</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34377,7 +34943,7 @@
         <v>8074636.580464601</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34410,7 +34976,7 @@
         <v>8074636.580464601</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34443,7 +35009,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34476,7 +35042,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34509,7 +35075,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34542,7 +35108,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34575,7 +35141,7 @@
         <v>7917987.126464601</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34608,7 +35174,7 @@
         <v>8038830.4534646</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34641,7 +35207,7 @@
         <v>8038830.4534646</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34674,7 +35240,7 @@
         <v>8035597.2858646</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34707,7 +35273,7 @@
         <v>8035597.2858646</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34740,7 +35306,7 @@
         <v>8035157.6338646</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34773,7 +35339,7 @@
         <v>8069409.6046646</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34806,7 +35372,7 @@
         <v>8069409.6046646</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34839,7 +35405,7 @@
         <v>8069409.6046646</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34872,7 +35438,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
